--- a/vfBattleTechMod-ProcGenStores-Test/res/test-xlrp-store-content.xlsx
+++ b/vfBattleTechMod-ProcGenStores-Test/res/test-xlrp-store-content.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Games\Steam\steamapps\common\BATTLETECH\Repository\vfBattleTechMod-Core\vfBattleTechMod-ProcGenStores-Test\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403648DC-6A9F-4F16-AA14-67216D9922C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685AF893-90BE-43A0-BDED-650CA6E6B036}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="1830" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="1830" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2627" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4857" uniqueCount="609">
   <si>
     <t>ActuatorTemplate</t>
   </si>
@@ -1845,10 +1845,13 @@
     <t>emod_engine_9000</t>
   </si>
   <si>
-    <t>Restricted PlanetTag (Any of)</t>
-  </si>
-  <si>
-    <t>Required PlanetTag (Any of)</t>
+    <t>Required PlanetTags (All of)</t>
+  </si>
+  <si>
+    <t>Restricted PlanetTags (Any of)</t>
+  </si>
+  <si>
+    <t>Very Uncommon</t>
   </si>
 </sst>
 </file>
@@ -2557,19 +2560,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H135"/>
+  <dimension ref="A1:J135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G130" sqref="G130"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="48.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:10" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>470</v>
       </c>
@@ -2594,8 +2599,14 @@
       <c r="H1" s="1" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2618,7 +2629,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2641,7 +2652,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2664,7 +2675,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2687,7 +2698,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2710,7 +2721,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2733,7 +2744,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2756,7 +2767,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2779,7 +2790,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2802,7 +2813,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2825,7 +2836,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2848,7 +2859,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2871,7 +2882,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2894,7 +2905,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2917,7 +2928,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -5684,10 +5695,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5702,7 +5713,7 @@
     <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:10" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>470</v>
       </c>
@@ -5727,8 +5738,14 @@
       <c r="H1" s="1" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>134</v>
       </c>
@@ -5751,7 +5768,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>135</v>
       </c>
@@ -5774,7 +5791,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>136</v>
       </c>
@@ -5797,7 +5814,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>137</v>
       </c>
@@ -5820,7 +5837,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>138</v>
       </c>
@@ -5843,7 +5860,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>139</v>
       </c>
@@ -5866,7 +5883,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>140</v>
       </c>
@@ -5889,7 +5906,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>141</v>
       </c>
@@ -5912,7 +5929,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -5935,7 +5952,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>143</v>
       </c>
@@ -5958,7 +5975,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>144</v>
       </c>
@@ -5981,7 +5998,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>145</v>
       </c>
@@ -6004,7 +6021,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>146</v>
       </c>
@@ -6027,7 +6044,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>147</v>
       </c>
@@ -6050,7 +6067,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>148</v>
       </c>
@@ -7048,9 +7065,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H88" sqref="H88"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7089,10 +7106,10 @@
         <v>474</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>607</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>606</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>508</v>
@@ -10125,10 +10142,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10143,7 +10160,7 @@
     <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:10" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>470</v>
       </c>
@@ -10168,8 +10185,14 @@
       <c r="H1" s="1" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>220</v>
       </c>
@@ -10192,7 +10215,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>221</v>
       </c>
@@ -10215,7 +10238,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>222</v>
       </c>
@@ -10238,7 +10261,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>99</v>
       </c>
@@ -10261,7 +10284,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>223</v>
       </c>
@@ -10291,1240 +10314,7928 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:A246"/>
+  <dimension ref="A1:J247"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="G238" sqref="G238"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D2" t="s">
+        <v>473</v>
+      </c>
+      <c r="E2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F2" t="s">
+        <v>473</v>
+      </c>
+      <c r="G2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H2" t="s">
+        <v>473</v>
+      </c>
+      <c r="I2" t="s">
+        <v>473</v>
+      </c>
+      <c r="J2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C3" t="s">
+        <v>473</v>
+      </c>
+      <c r="D3" t="s">
+        <v>473</v>
+      </c>
+      <c r="E3" t="s">
+        <v>473</v>
+      </c>
+      <c r="F3" t="s">
+        <v>473</v>
+      </c>
+      <c r="G3" t="s">
+        <v>478</v>
+      </c>
+      <c r="H3" t="s">
+        <v>473</v>
+      </c>
+      <c r="I3" t="s">
+        <v>473</v>
+      </c>
+      <c r="J3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>473</v>
+      </c>
+      <c r="C4" t="s">
+        <v>473</v>
+      </c>
+      <c r="D4" t="s">
+        <v>473</v>
+      </c>
+      <c r="E4" t="s">
+        <v>473</v>
+      </c>
+      <c r="F4" t="s">
+        <v>473</v>
+      </c>
+      <c r="G4" t="s">
+        <v>478</v>
+      </c>
+      <c r="H4" t="s">
+        <v>473</v>
+      </c>
+      <c r="I4" t="s">
+        <v>473</v>
+      </c>
+      <c r="J4" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>473</v>
+      </c>
+      <c r="C5" t="s">
+        <v>473</v>
+      </c>
+      <c r="D5" t="s">
+        <v>473</v>
+      </c>
+      <c r="E5" t="s">
+        <v>473</v>
+      </c>
+      <c r="F5" t="s">
+        <v>473</v>
+      </c>
+      <c r="G5" t="s">
+        <v>478</v>
+      </c>
+      <c r="H5" t="s">
+        <v>473</v>
+      </c>
+      <c r="I5" t="s">
+        <v>473</v>
+      </c>
+      <c r="J5" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>473</v>
+      </c>
+      <c r="C6" t="s">
+        <v>473</v>
+      </c>
+      <c r="D6" t="s">
+        <v>473</v>
+      </c>
+      <c r="E6" t="s">
+        <v>473</v>
+      </c>
+      <c r="F6" t="s">
+        <v>473</v>
+      </c>
+      <c r="G6" t="s">
+        <v>478</v>
+      </c>
+      <c r="H6" t="s">
+        <v>473</v>
+      </c>
+      <c r="I6" t="s">
+        <v>473</v>
+      </c>
+      <c r="J6" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>473</v>
+      </c>
+      <c r="C7" t="s">
+        <v>473</v>
+      </c>
+      <c r="D7" t="s">
+        <v>473</v>
+      </c>
+      <c r="E7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F7" t="s">
+        <v>473</v>
+      </c>
+      <c r="G7" t="s">
+        <v>608</v>
+      </c>
+      <c r="H7" t="s">
+        <v>473</v>
+      </c>
+      <c r="I7" t="s">
+        <v>473</v>
+      </c>
+      <c r="J7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>473</v>
+      </c>
+      <c r="C8" t="s">
+        <v>473</v>
+      </c>
+      <c r="D8" t="s">
+        <v>473</v>
+      </c>
+      <c r="E8" t="s">
+        <v>473</v>
+      </c>
+      <c r="F8" t="s">
+        <v>473</v>
+      </c>
+      <c r="G8" t="s">
+        <v>608</v>
+      </c>
+      <c r="H8" t="s">
+        <v>473</v>
+      </c>
+      <c r="I8" t="s">
+        <v>473</v>
+      </c>
+      <c r="J8" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>473</v>
+      </c>
+      <c r="C9" t="s">
+        <v>473</v>
+      </c>
+      <c r="D9" t="s">
+        <v>473</v>
+      </c>
+      <c r="E9" t="s">
+        <v>473</v>
+      </c>
+      <c r="F9" t="s">
+        <v>473</v>
+      </c>
+      <c r="G9" t="s">
+        <v>608</v>
+      </c>
+      <c r="H9" t="s">
+        <v>473</v>
+      </c>
+      <c r="I9" t="s">
+        <v>473</v>
+      </c>
+      <c r="J9" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>473</v>
+      </c>
+      <c r="C10" t="s">
+        <v>473</v>
+      </c>
+      <c r="D10" t="s">
+        <v>473</v>
+      </c>
+      <c r="E10" t="s">
+        <v>473</v>
+      </c>
+      <c r="F10" t="s">
+        <v>473</v>
+      </c>
+      <c r="G10" t="s">
+        <v>608</v>
+      </c>
+      <c r="H10" t="s">
+        <v>473</v>
+      </c>
+      <c r="I10" t="s">
+        <v>473</v>
+      </c>
+      <c r="J10" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>473</v>
+      </c>
+      <c r="C11" t="s">
+        <v>473</v>
+      </c>
+      <c r="D11" t="s">
+        <v>473</v>
+      </c>
+      <c r="E11" t="s">
+        <v>473</v>
+      </c>
+      <c r="F11" t="s">
+        <v>473</v>
+      </c>
+      <c r="G11" t="s">
+        <v>608</v>
+      </c>
+      <c r="H11" t="s">
+        <v>473</v>
+      </c>
+      <c r="I11" t="s">
+        <v>473</v>
+      </c>
+      <c r="J11" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>473</v>
+      </c>
+      <c r="C12" t="s">
+        <v>473</v>
+      </c>
+      <c r="D12" t="s">
+        <v>473</v>
+      </c>
+      <c r="E12" t="s">
+        <v>473</v>
+      </c>
+      <c r="F12" t="s">
+        <v>473</v>
+      </c>
+      <c r="G12" t="s">
+        <v>475</v>
+      </c>
+      <c r="H12" t="s">
+        <v>473</v>
+      </c>
+      <c r="I12" t="s">
+        <v>473</v>
+      </c>
+      <c r="J12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
+        <v>473</v>
+      </c>
+      <c r="C13" t="s">
+        <v>473</v>
+      </c>
+      <c r="D13" t="s">
+        <v>473</v>
+      </c>
+      <c r="E13" t="s">
+        <v>473</v>
+      </c>
+      <c r="F13" t="s">
+        <v>473</v>
+      </c>
+      <c r="G13" t="s">
+        <v>476</v>
+      </c>
+      <c r="H13" t="s">
+        <v>473</v>
+      </c>
+      <c r="I13" t="s">
+        <v>473</v>
+      </c>
+      <c r="J13" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
+        <v>473</v>
+      </c>
+      <c r="C14" t="s">
+        <v>473</v>
+      </c>
+      <c r="D14" t="s">
+        <v>473</v>
+      </c>
+      <c r="E14" t="s">
+        <v>473</v>
+      </c>
+      <c r="F14" t="s">
+        <v>473</v>
+      </c>
+      <c r="G14" t="s">
+        <v>476</v>
+      </c>
+      <c r="H14" t="s">
+        <v>473</v>
+      </c>
+      <c r="I14" t="s">
+        <v>473</v>
+      </c>
+      <c r="J14" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
+        <v>473</v>
+      </c>
+      <c r="C15" t="s">
+        <v>473</v>
+      </c>
+      <c r="D15" t="s">
+        <v>473</v>
+      </c>
+      <c r="E15" t="s">
+        <v>473</v>
+      </c>
+      <c r="F15" t="s">
+        <v>473</v>
+      </c>
+      <c r="G15" t="s">
+        <v>476</v>
+      </c>
+      <c r="H15" t="s">
+        <v>473</v>
+      </c>
+      <c r="I15" t="s">
+        <v>473</v>
+      </c>
+      <c r="J15" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
+        <v>473</v>
+      </c>
+      <c r="C16" t="s">
+        <v>473</v>
+      </c>
+      <c r="D16" t="s">
+        <v>473</v>
+      </c>
+      <c r="E16" t="s">
+        <v>473</v>
+      </c>
+      <c r="F16" t="s">
+        <v>473</v>
+      </c>
+      <c r="G16" t="s">
+        <v>476</v>
+      </c>
+      <c r="H16" t="s">
+        <v>473</v>
+      </c>
+      <c r="I16" t="s">
+        <v>473</v>
+      </c>
+      <c r="J16" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>473</v>
+      </c>
+      <c r="C17" t="s">
+        <v>473</v>
+      </c>
+      <c r="D17" t="s">
+        <v>473</v>
+      </c>
+      <c r="E17" t="s">
+        <v>473</v>
+      </c>
+      <c r="F17" t="s">
+        <v>473</v>
+      </c>
+      <c r="G17" t="s">
+        <v>476</v>
+      </c>
+      <c r="H17" t="s">
+        <v>473</v>
+      </c>
+      <c r="I17" t="s">
+        <v>473</v>
+      </c>
+      <c r="J17" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
+        <v>473</v>
+      </c>
+      <c r="C18" t="s">
+        <v>473</v>
+      </c>
+      <c r="D18" t="s">
+        <v>473</v>
+      </c>
+      <c r="E18" t="s">
+        <v>473</v>
+      </c>
+      <c r="F18" t="s">
+        <v>473</v>
+      </c>
+      <c r="G18" t="s">
+        <v>608</v>
+      </c>
+      <c r="H18" t="s">
+        <v>473</v>
+      </c>
+      <c r="I18" t="s">
+        <v>473</v>
+      </c>
+      <c r="J18" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
+        <v>473</v>
+      </c>
+      <c r="C19" t="s">
+        <v>473</v>
+      </c>
+      <c r="D19" t="s">
+        <v>473</v>
+      </c>
+      <c r="E19" t="s">
+        <v>473</v>
+      </c>
+      <c r="F19" t="s">
+        <v>473</v>
+      </c>
+      <c r="G19" t="s">
+        <v>608</v>
+      </c>
+      <c r="H19" t="s">
+        <v>473</v>
+      </c>
+      <c r="I19" t="s">
+        <v>473</v>
+      </c>
+      <c r="J19" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
+        <v>473</v>
+      </c>
+      <c r="C20" t="s">
+        <v>473</v>
+      </c>
+      <c r="D20" t="s">
+        <v>473</v>
+      </c>
+      <c r="E20" t="s">
+        <v>473</v>
+      </c>
+      <c r="F20" t="s">
+        <v>473</v>
+      </c>
+      <c r="G20" t="s">
+        <v>608</v>
+      </c>
+      <c r="H20" t="s">
+        <v>473</v>
+      </c>
+      <c r="I20" t="s">
+        <v>473</v>
+      </c>
+      <c r="J20" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
+        <v>473</v>
+      </c>
+      <c r="C21" t="s">
+        <v>473</v>
+      </c>
+      <c r="D21" t="s">
+        <v>473</v>
+      </c>
+      <c r="E21" t="s">
+        <v>473</v>
+      </c>
+      <c r="F21" t="s">
+        <v>473</v>
+      </c>
+      <c r="G21" t="s">
+        <v>608</v>
+      </c>
+      <c r="H21" t="s">
+        <v>473</v>
+      </c>
+      <c r="I21" t="s">
+        <v>473</v>
+      </c>
+      <c r="J21" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
+        <v>473</v>
+      </c>
+      <c r="C22" t="s">
+        <v>473</v>
+      </c>
+      <c r="D22" t="s">
+        <v>473</v>
+      </c>
+      <c r="E22" t="s">
+        <v>473</v>
+      </c>
+      <c r="F22" t="s">
+        <v>473</v>
+      </c>
+      <c r="G22" t="s">
+        <v>608</v>
+      </c>
+      <c r="H22" t="s">
+        <v>473</v>
+      </c>
+      <c r="I22" t="s">
+        <v>473</v>
+      </c>
+      <c r="J22" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
+        <v>473</v>
+      </c>
+      <c r="C23" t="s">
+        <v>473</v>
+      </c>
+      <c r="D23" t="s">
+        <v>473</v>
+      </c>
+      <c r="E23" t="s">
+        <v>473</v>
+      </c>
+      <c r="F23" t="s">
+        <v>473</v>
+      </c>
+      <c r="G23" t="s">
+        <v>475</v>
+      </c>
+      <c r="H23" t="s">
+        <v>473</v>
+      </c>
+      <c r="I23" t="s">
+        <v>473</v>
+      </c>
+      <c r="J23" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
+        <v>473</v>
+      </c>
+      <c r="C24" t="s">
+        <v>473</v>
+      </c>
+      <c r="D24" t="s">
+        <v>473</v>
+      </c>
+      <c r="E24" t="s">
+        <v>473</v>
+      </c>
+      <c r="F24" t="s">
+        <v>473</v>
+      </c>
+      <c r="G24" t="s">
+        <v>476</v>
+      </c>
+      <c r="H24" t="s">
+        <v>473</v>
+      </c>
+      <c r="I24" t="s">
+        <v>473</v>
+      </c>
+      <c r="J24" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
+        <v>473</v>
+      </c>
+      <c r="C25" t="s">
+        <v>473</v>
+      </c>
+      <c r="D25" t="s">
+        <v>473</v>
+      </c>
+      <c r="E25" t="s">
+        <v>473</v>
+      </c>
+      <c r="F25" t="s">
+        <v>473</v>
+      </c>
+      <c r="G25" t="s">
+        <v>478</v>
+      </c>
+      <c r="H25" t="s">
+        <v>473</v>
+      </c>
+      <c r="I25" t="s">
+        <v>473</v>
+      </c>
+      <c r="J25" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
+        <v>473</v>
+      </c>
+      <c r="C26" t="s">
+        <v>473</v>
+      </c>
+      <c r="D26" t="s">
+        <v>473</v>
+      </c>
+      <c r="E26" t="s">
+        <v>473</v>
+      </c>
+      <c r="F26" t="s">
+        <v>473</v>
+      </c>
+      <c r="G26" t="s">
+        <v>478</v>
+      </c>
+      <c r="H26" t="s">
+        <v>473</v>
+      </c>
+      <c r="I26" t="s">
+        <v>473</v>
+      </c>
+      <c r="J26" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
+        <v>473</v>
+      </c>
+      <c r="C27" t="s">
+        <v>473</v>
+      </c>
+      <c r="D27" t="s">
+        <v>473</v>
+      </c>
+      <c r="E27" t="s">
+        <v>473</v>
+      </c>
+      <c r="F27" t="s">
+        <v>473</v>
+      </c>
+      <c r="G27" t="s">
+        <v>478</v>
+      </c>
+      <c r="H27" t="s">
+        <v>473</v>
+      </c>
+      <c r="I27" t="s">
+        <v>473</v>
+      </c>
+      <c r="J27" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
+        <v>473</v>
+      </c>
+      <c r="C28" t="s">
+        <v>473</v>
+      </c>
+      <c r="D28" t="s">
+        <v>473</v>
+      </c>
+      <c r="E28" t="s">
+        <v>473</v>
+      </c>
+      <c r="F28" t="s">
+        <v>473</v>
+      </c>
+      <c r="G28" t="s">
+        <v>478</v>
+      </c>
+      <c r="H28" t="s">
+        <v>473</v>
+      </c>
+      <c r="I28" t="s">
+        <v>473</v>
+      </c>
+      <c r="J28" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
+        <v>473</v>
+      </c>
+      <c r="C29" t="s">
+        <v>473</v>
+      </c>
+      <c r="D29" t="s">
+        <v>473</v>
+      </c>
+      <c r="E29" t="s">
+        <v>473</v>
+      </c>
+      <c r="F29" t="s">
+        <v>473</v>
+      </c>
+      <c r="G29" t="s">
+        <v>608</v>
+      </c>
+      <c r="H29" t="s">
+        <v>473</v>
+      </c>
+      <c r="I29" t="s">
+        <v>473</v>
+      </c>
+      <c r="J29" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
+        <v>473</v>
+      </c>
+      <c r="C30" t="s">
+        <v>473</v>
+      </c>
+      <c r="D30" t="s">
+        <v>473</v>
+      </c>
+      <c r="E30" t="s">
+        <v>473</v>
+      </c>
+      <c r="F30" t="s">
+        <v>473</v>
+      </c>
+      <c r="G30" t="s">
+        <v>608</v>
+      </c>
+      <c r="H30" t="s">
+        <v>473</v>
+      </c>
+      <c r="I30" t="s">
+        <v>473</v>
+      </c>
+      <c r="J30" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
+        <v>473</v>
+      </c>
+      <c r="C31" t="s">
+        <v>473</v>
+      </c>
+      <c r="D31" t="s">
+        <v>473</v>
+      </c>
+      <c r="E31" t="s">
+        <v>473</v>
+      </c>
+      <c r="F31" t="s">
+        <v>473</v>
+      </c>
+      <c r="G31" t="s">
+        <v>608</v>
+      </c>
+      <c r="H31" t="s">
+        <v>473</v>
+      </c>
+      <c r="I31" t="s">
+        <v>473</v>
+      </c>
+      <c r="J31" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
+        <v>473</v>
+      </c>
+      <c r="C32" t="s">
+        <v>473</v>
+      </c>
+      <c r="D32" t="s">
+        <v>473</v>
+      </c>
+      <c r="E32" t="s">
+        <v>473</v>
+      </c>
+      <c r="F32" t="s">
+        <v>473</v>
+      </c>
+      <c r="G32" t="s">
+        <v>608</v>
+      </c>
+      <c r="H32" t="s">
+        <v>473</v>
+      </c>
+      <c r="I32" t="s">
+        <v>473</v>
+      </c>
+      <c r="J32" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
+        <v>473</v>
+      </c>
+      <c r="C33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D33" t="s">
+        <v>473</v>
+      </c>
+      <c r="E33" t="s">
+        <v>473</v>
+      </c>
+      <c r="F33" t="s">
+        <v>473</v>
+      </c>
+      <c r="G33" t="s">
+        <v>608</v>
+      </c>
+      <c r="H33" t="s">
+        <v>473</v>
+      </c>
+      <c r="I33" t="s">
+        <v>473</v>
+      </c>
+      <c r="J33" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
+        <v>473</v>
+      </c>
+      <c r="C34" t="s">
+        <v>473</v>
+      </c>
+      <c r="D34" t="s">
+        <v>473</v>
+      </c>
+      <c r="E34" t="s">
+        <v>473</v>
+      </c>
+      <c r="F34" t="s">
+        <v>473</v>
+      </c>
+      <c r="G34" t="s">
+        <v>475</v>
+      </c>
+      <c r="H34" t="s">
+        <v>473</v>
+      </c>
+      <c r="I34" t="s">
+        <v>473</v>
+      </c>
+      <c r="J34" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
+        <v>473</v>
+      </c>
+      <c r="C35" t="s">
+        <v>473</v>
+      </c>
+      <c r="D35" t="s">
+        <v>473</v>
+      </c>
+      <c r="E35" t="s">
+        <v>473</v>
+      </c>
+      <c r="F35" t="s">
+        <v>473</v>
+      </c>
+      <c r="G35" t="s">
+        <v>476</v>
+      </c>
+      <c r="H35" t="s">
+        <v>473</v>
+      </c>
+      <c r="I35" t="s">
+        <v>473</v>
+      </c>
+      <c r="J35" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
+        <v>473</v>
+      </c>
+      <c r="C36" t="s">
+        <v>473</v>
+      </c>
+      <c r="D36" t="s">
+        <v>473</v>
+      </c>
+      <c r="E36" t="s">
+        <v>473</v>
+      </c>
+      <c r="F36" t="s">
+        <v>473</v>
+      </c>
+      <c r="G36" t="s">
+        <v>478</v>
+      </c>
+      <c r="H36" t="s">
+        <v>473</v>
+      </c>
+      <c r="I36" t="s">
+        <v>473</v>
+      </c>
+      <c r="J36" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
+        <v>473</v>
+      </c>
+      <c r="C37" t="s">
+        <v>473</v>
+      </c>
+      <c r="D37" t="s">
+        <v>473</v>
+      </c>
+      <c r="E37" t="s">
+        <v>473</v>
+      </c>
+      <c r="F37" t="s">
+        <v>473</v>
+      </c>
+      <c r="G37" t="s">
+        <v>478</v>
+      </c>
+      <c r="H37" t="s">
+        <v>473</v>
+      </c>
+      <c r="I37" t="s">
+        <v>473</v>
+      </c>
+      <c r="J37" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
+        <v>473</v>
+      </c>
+      <c r="C38" t="s">
+        <v>473</v>
+      </c>
+      <c r="D38" t="s">
+        <v>473</v>
+      </c>
+      <c r="E38" t="s">
+        <v>473</v>
+      </c>
+      <c r="F38" t="s">
+        <v>473</v>
+      </c>
+      <c r="G38" t="s">
+        <v>478</v>
+      </c>
+      <c r="H38" t="s">
+        <v>473</v>
+      </c>
+      <c r="I38" t="s">
+        <v>473</v>
+      </c>
+      <c r="J38" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+      <c r="B39" t="s">
+        <v>473</v>
+      </c>
+      <c r="C39" t="s">
+        <v>473</v>
+      </c>
+      <c r="D39" t="s">
+        <v>473</v>
+      </c>
+      <c r="E39" t="s">
+        <v>473</v>
+      </c>
+      <c r="F39" t="s">
+        <v>473</v>
+      </c>
+      <c r="G39" t="s">
+        <v>478</v>
+      </c>
+      <c r="H39" t="s">
+        <v>473</v>
+      </c>
+      <c r="I39" t="s">
+        <v>473</v>
+      </c>
+      <c r="J39" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
+        <v>473</v>
+      </c>
+      <c r="C40" t="s">
+        <v>473</v>
+      </c>
+      <c r="D40" t="s">
+        <v>473</v>
+      </c>
+      <c r="E40" t="s">
+        <v>473</v>
+      </c>
+      <c r="F40" t="s">
+        <v>473</v>
+      </c>
+      <c r="G40" t="s">
+        <v>608</v>
+      </c>
+      <c r="H40" t="s">
+        <v>473</v>
+      </c>
+      <c r="I40" t="s">
+        <v>473</v>
+      </c>
+      <c r="J40" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+      <c r="B41" t="s">
+        <v>473</v>
+      </c>
+      <c r="C41" t="s">
+        <v>473</v>
+      </c>
+      <c r="D41" t="s">
+        <v>473</v>
+      </c>
+      <c r="E41" t="s">
+        <v>473</v>
+      </c>
+      <c r="F41" t="s">
+        <v>473</v>
+      </c>
+      <c r="G41" t="s">
+        <v>608</v>
+      </c>
+      <c r="H41" t="s">
+        <v>473</v>
+      </c>
+      <c r="I41" t="s">
+        <v>473</v>
+      </c>
+      <c r="J41" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+      <c r="B42" t="s">
+        <v>473</v>
+      </c>
+      <c r="C42" t="s">
+        <v>473</v>
+      </c>
+      <c r="D42" t="s">
+        <v>473</v>
+      </c>
+      <c r="E42" t="s">
+        <v>473</v>
+      </c>
+      <c r="F42" t="s">
+        <v>473</v>
+      </c>
+      <c r="G42" t="s">
+        <v>608</v>
+      </c>
+      <c r="H42" t="s">
+        <v>473</v>
+      </c>
+      <c r="I42" t="s">
+        <v>473</v>
+      </c>
+      <c r="J42" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
+        <v>473</v>
+      </c>
+      <c r="C43" t="s">
+        <v>473</v>
+      </c>
+      <c r="D43" t="s">
+        <v>473</v>
+      </c>
+      <c r="E43" t="s">
+        <v>473</v>
+      </c>
+      <c r="F43" t="s">
+        <v>473</v>
+      </c>
+      <c r="G43" t="s">
+        <v>608</v>
+      </c>
+      <c r="H43" t="s">
+        <v>473</v>
+      </c>
+      <c r="I43" t="s">
+        <v>473</v>
+      </c>
+      <c r="J43" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
+      <c r="B44" t="s">
+        <v>473</v>
+      </c>
+      <c r="C44" t="s">
+        <v>473</v>
+      </c>
+      <c r="D44" t="s">
+        <v>473</v>
+      </c>
+      <c r="E44" t="s">
+        <v>473</v>
+      </c>
+      <c r="F44" t="s">
+        <v>473</v>
+      </c>
+      <c r="G44" t="s">
+        <v>608</v>
+      </c>
+      <c r="H44" t="s">
+        <v>473</v>
+      </c>
+      <c r="I44" t="s">
+        <v>473</v>
+      </c>
+      <c r="J44" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
+      <c r="B45" t="s">
+        <v>473</v>
+      </c>
+      <c r="C45" t="s">
+        <v>473</v>
+      </c>
+      <c r="D45" t="s">
+        <v>473</v>
+      </c>
+      <c r="E45" t="s">
+        <v>473</v>
+      </c>
+      <c r="F45" t="s">
+        <v>473</v>
+      </c>
+      <c r="G45" t="s">
+        <v>475</v>
+      </c>
+      <c r="H45" t="s">
+        <v>473</v>
+      </c>
+      <c r="I45" t="s">
+        <v>473</v>
+      </c>
+      <c r="J45" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
+      <c r="B46" t="s">
+        <v>473</v>
+      </c>
+      <c r="C46" t="s">
+        <v>473</v>
+      </c>
+      <c r="D46" t="s">
+        <v>473</v>
+      </c>
+      <c r="E46" t="s">
+        <v>473</v>
+      </c>
+      <c r="F46" t="s">
+        <v>473</v>
+      </c>
+      <c r="G46" t="s">
+        <v>476</v>
+      </c>
+      <c r="H46" t="s">
+        <v>473</v>
+      </c>
+      <c r="I46" t="s">
+        <v>473</v>
+      </c>
+      <c r="J46" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
+      <c r="B47" t="s">
+        <v>473</v>
+      </c>
+      <c r="C47" t="s">
+        <v>473</v>
+      </c>
+      <c r="D47" t="s">
+        <v>473</v>
+      </c>
+      <c r="E47" t="s">
+        <v>473</v>
+      </c>
+      <c r="F47" t="s">
+        <v>473</v>
+      </c>
+      <c r="G47" t="s">
+        <v>476</v>
+      </c>
+      <c r="H47" t="s">
+        <v>473</v>
+      </c>
+      <c r="I47" t="s">
+        <v>473</v>
+      </c>
+      <c r="J47" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
+      <c r="B48" t="s">
+        <v>473</v>
+      </c>
+      <c r="C48" t="s">
+        <v>473</v>
+      </c>
+      <c r="D48" t="s">
+        <v>473</v>
+      </c>
+      <c r="E48" t="s">
+        <v>473</v>
+      </c>
+      <c r="F48" t="s">
+        <v>473</v>
+      </c>
+      <c r="G48" t="s">
+        <v>478</v>
+      </c>
+      <c r="H48" t="s">
+        <v>473</v>
+      </c>
+      <c r="I48" t="s">
+        <v>473</v>
+      </c>
+      <c r="J48" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
+      <c r="B49" t="s">
+        <v>473</v>
+      </c>
+      <c r="C49" t="s">
+        <v>473</v>
+      </c>
+      <c r="D49" t="s">
+        <v>473</v>
+      </c>
+      <c r="E49" t="s">
+        <v>473</v>
+      </c>
+      <c r="F49" t="s">
+        <v>473</v>
+      </c>
+      <c r="G49" t="s">
+        <v>478</v>
+      </c>
+      <c r="H49" t="s">
+        <v>473</v>
+      </c>
+      <c r="I49" t="s">
+        <v>473</v>
+      </c>
+      <c r="J49" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
+      <c r="B50" t="s">
+        <v>473</v>
+      </c>
+      <c r="C50" t="s">
+        <v>473</v>
+      </c>
+      <c r="D50" t="s">
+        <v>473</v>
+      </c>
+      <c r="E50" t="s">
+        <v>473</v>
+      </c>
+      <c r="F50" t="s">
+        <v>473</v>
+      </c>
+      <c r="G50" t="s">
+        <v>476</v>
+      </c>
+      <c r="H50" t="s">
+        <v>473</v>
+      </c>
+      <c r="I50" t="s">
+        <v>473</v>
+      </c>
+      <c r="J50" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
+      <c r="B51" t="s">
+        <v>473</v>
+      </c>
+      <c r="C51" t="s">
+        <v>473</v>
+      </c>
+      <c r="D51" t="s">
+        <v>473</v>
+      </c>
+      <c r="E51" t="s">
+        <v>473</v>
+      </c>
+      <c r="F51" t="s">
+        <v>473</v>
+      </c>
+      <c r="G51" t="s">
+        <v>478</v>
+      </c>
+      <c r="H51" t="s">
+        <v>473</v>
+      </c>
+      <c r="I51" t="s">
+        <v>473</v>
+      </c>
+      <c r="J51" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
+      <c r="B52" t="s">
+        <v>473</v>
+      </c>
+      <c r="C52" t="s">
+        <v>473</v>
+      </c>
+      <c r="D52" t="s">
+        <v>473</v>
+      </c>
+      <c r="E52" t="s">
+        <v>473</v>
+      </c>
+      <c r="F52" t="s">
+        <v>473</v>
+      </c>
+      <c r="G52" t="s">
+        <v>478</v>
+      </c>
+      <c r="H52" t="s">
+        <v>473</v>
+      </c>
+      <c r="I52" t="s">
+        <v>473</v>
+      </c>
+      <c r="J52" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
+      <c r="B53" t="s">
+        <v>473</v>
+      </c>
+      <c r="C53" t="s">
+        <v>473</v>
+      </c>
+      <c r="D53" t="s">
+        <v>473</v>
+      </c>
+      <c r="E53" t="s">
+        <v>473</v>
+      </c>
+      <c r="F53" t="s">
+        <v>473</v>
+      </c>
+      <c r="G53" t="s">
+        <v>476</v>
+      </c>
+      <c r="H53" t="s">
+        <v>473</v>
+      </c>
+      <c r="I53" t="s">
+        <v>473</v>
+      </c>
+      <c r="J53" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
+      <c r="B54" t="s">
+        <v>473</v>
+      </c>
+      <c r="C54" t="s">
+        <v>473</v>
+      </c>
+      <c r="D54" t="s">
+        <v>473</v>
+      </c>
+      <c r="E54" t="s">
+        <v>473</v>
+      </c>
+      <c r="F54" t="s">
+        <v>473</v>
+      </c>
+      <c r="G54" t="s">
+        <v>478</v>
+      </c>
+      <c r="H54" t="s">
+        <v>473</v>
+      </c>
+      <c r="I54" t="s">
+        <v>473</v>
+      </c>
+      <c r="J54" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
+      <c r="B55" t="s">
+        <v>473</v>
+      </c>
+      <c r="C55" t="s">
+        <v>473</v>
+      </c>
+      <c r="D55" t="s">
+        <v>473</v>
+      </c>
+      <c r="E55" t="s">
+        <v>473</v>
+      </c>
+      <c r="F55" t="s">
+        <v>473</v>
+      </c>
+      <c r="G55" t="s">
+        <v>478</v>
+      </c>
+      <c r="H55" t="s">
+        <v>473</v>
+      </c>
+      <c r="I55" t="s">
+        <v>473</v>
+      </c>
+      <c r="J55" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
+      <c r="B56" t="s">
+        <v>473</v>
+      </c>
+      <c r="C56" t="s">
+        <v>473</v>
+      </c>
+      <c r="D56" t="s">
+        <v>473</v>
+      </c>
+      <c r="E56" t="s">
+        <v>473</v>
+      </c>
+      <c r="F56" t="s">
+        <v>473</v>
+      </c>
+      <c r="G56" t="s">
+        <v>476</v>
+      </c>
+      <c r="H56" t="s">
+        <v>473</v>
+      </c>
+      <c r="I56" t="s">
+        <v>473</v>
+      </c>
+      <c r="J56" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
+      <c r="B57" t="s">
+        <v>473</v>
+      </c>
+      <c r="C57" t="s">
+        <v>473</v>
+      </c>
+      <c r="D57" t="s">
+        <v>473</v>
+      </c>
+      <c r="E57" t="s">
+        <v>473</v>
+      </c>
+      <c r="F57" t="s">
+        <v>473</v>
+      </c>
+      <c r="G57" t="s">
+        <v>478</v>
+      </c>
+      <c r="H57" t="s">
+        <v>473</v>
+      </c>
+      <c r="I57" t="s">
+        <v>473</v>
+      </c>
+      <c r="J57" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
+      <c r="B58" t="s">
+        <v>473</v>
+      </c>
+      <c r="C58" t="s">
+        <v>473</v>
+      </c>
+      <c r="D58" t="s">
+        <v>473</v>
+      </c>
+      <c r="E58" t="s">
+        <v>473</v>
+      </c>
+      <c r="F58" t="s">
+        <v>473</v>
+      </c>
+      <c r="G58" t="s">
+        <v>478</v>
+      </c>
+      <c r="H58" t="s">
+        <v>473</v>
+      </c>
+      <c r="I58" t="s">
+        <v>473</v>
+      </c>
+      <c r="J58" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
+      <c r="B59" t="s">
+        <v>473</v>
+      </c>
+      <c r="C59" t="s">
+        <v>473</v>
+      </c>
+      <c r="D59" t="s">
+        <v>473</v>
+      </c>
+      <c r="E59" t="s">
+        <v>473</v>
+      </c>
+      <c r="F59" t="s">
+        <v>473</v>
+      </c>
+      <c r="G59" t="s">
+        <v>476</v>
+      </c>
+      <c r="H59" t="s">
+        <v>473</v>
+      </c>
+      <c r="I59" t="s">
+        <v>473</v>
+      </c>
+      <c r="J59" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
+      <c r="B60" t="s">
+        <v>473</v>
+      </c>
+      <c r="C60" t="s">
+        <v>473</v>
+      </c>
+      <c r="D60" t="s">
+        <v>473</v>
+      </c>
+      <c r="E60" t="s">
+        <v>473</v>
+      </c>
+      <c r="F60" t="s">
+        <v>473</v>
+      </c>
+      <c r="G60" t="s">
+        <v>476</v>
+      </c>
+      <c r="H60" t="s">
+        <v>473</v>
+      </c>
+      <c r="I60" t="s">
+        <v>473</v>
+      </c>
+      <c r="J60" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
+      <c r="B61" t="s">
+        <v>473</v>
+      </c>
+      <c r="C61" t="s">
+        <v>473</v>
+      </c>
+      <c r="D61" t="s">
+        <v>473</v>
+      </c>
+      <c r="E61" t="s">
+        <v>473</v>
+      </c>
+      <c r="F61" t="s">
+        <v>473</v>
+      </c>
+      <c r="G61" t="s">
+        <v>476</v>
+      </c>
+      <c r="H61" t="s">
+        <v>473</v>
+      </c>
+      <c r="I61" t="s">
+        <v>473</v>
+      </c>
+      <c r="J61" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
+      <c r="B62" t="s">
+        <v>473</v>
+      </c>
+      <c r="C62" t="s">
+        <v>473</v>
+      </c>
+      <c r="D62" t="s">
+        <v>473</v>
+      </c>
+      <c r="E62" t="s">
+        <v>473</v>
+      </c>
+      <c r="F62" t="s">
+        <v>473</v>
+      </c>
+      <c r="G62" t="s">
+        <v>476</v>
+      </c>
+      <c r="H62" t="s">
+        <v>473</v>
+      </c>
+      <c r="I62" t="s">
+        <v>473</v>
+      </c>
+      <c r="J62" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
+      <c r="B63" t="s">
+        <v>473</v>
+      </c>
+      <c r="C63" t="s">
+        <v>473</v>
+      </c>
+      <c r="D63" t="s">
+        <v>473</v>
+      </c>
+      <c r="E63" t="s">
+        <v>473</v>
+      </c>
+      <c r="F63" t="s">
+        <v>473</v>
+      </c>
+      <c r="G63" t="s">
+        <v>478</v>
+      </c>
+      <c r="H63" t="s">
+        <v>473</v>
+      </c>
+      <c r="I63" t="s">
+        <v>473</v>
+      </c>
+      <c r="J63" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
+      <c r="B64" t="s">
+        <v>473</v>
+      </c>
+      <c r="C64" t="s">
+        <v>473</v>
+      </c>
+      <c r="D64" t="s">
+        <v>473</v>
+      </c>
+      <c r="E64" t="s">
+        <v>473</v>
+      </c>
+      <c r="F64" t="s">
+        <v>473</v>
+      </c>
+      <c r="G64" t="s">
+        <v>608</v>
+      </c>
+      <c r="H64" t="s">
+        <v>473</v>
+      </c>
+      <c r="I64" t="s">
+        <v>473</v>
+      </c>
+      <c r="J64" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
+      <c r="B65" t="s">
+        <v>473</v>
+      </c>
+      <c r="C65" t="s">
+        <v>473</v>
+      </c>
+      <c r="D65" t="s">
+        <v>473</v>
+      </c>
+      <c r="E65" t="s">
+        <v>473</v>
+      </c>
+      <c r="F65" t="s">
+        <v>473</v>
+      </c>
+      <c r="G65" t="s">
+        <v>476</v>
+      </c>
+      <c r="H65" t="s">
+        <v>473</v>
+      </c>
+      <c r="I65" t="s">
+        <v>473</v>
+      </c>
+      <c r="J65" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
+      <c r="B66" t="s">
+        <v>473</v>
+      </c>
+      <c r="C66" t="s">
+        <v>473</v>
+      </c>
+      <c r="D66" t="s">
+        <v>473</v>
+      </c>
+      <c r="E66" t="s">
+        <v>473</v>
+      </c>
+      <c r="F66" t="s">
+        <v>473</v>
+      </c>
+      <c r="G66" t="s">
+        <v>478</v>
+      </c>
+      <c r="H66" t="s">
+        <v>473</v>
+      </c>
+      <c r="I66" t="s">
+        <v>473</v>
+      </c>
+      <c r="J66" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
+      <c r="B67" t="s">
+        <v>473</v>
+      </c>
+      <c r="C67" t="s">
+        <v>473</v>
+      </c>
+      <c r="D67" t="s">
+        <v>473</v>
+      </c>
+      <c r="E67" t="s">
+        <v>473</v>
+      </c>
+      <c r="F67" t="s">
+        <v>473</v>
+      </c>
+      <c r="G67" t="s">
+        <v>478</v>
+      </c>
+      <c r="H67" t="s">
+        <v>473</v>
+      </c>
+      <c r="I67" t="s">
+        <v>473</v>
+      </c>
+      <c r="J67" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
+      <c r="B68" t="s">
+        <v>473</v>
+      </c>
+      <c r="C68" t="s">
+        <v>473</v>
+      </c>
+      <c r="D68" t="s">
+        <v>473</v>
+      </c>
+      <c r="E68" t="s">
+        <v>473</v>
+      </c>
+      <c r="F68" t="s">
+        <v>473</v>
+      </c>
+      <c r="G68" t="s">
+        <v>476</v>
+      </c>
+      <c r="H68" t="s">
+        <v>473</v>
+      </c>
+      <c r="I68" t="s">
+        <v>473</v>
+      </c>
+      <c r="J68" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
+      <c r="B69" t="s">
+        <v>473</v>
+      </c>
+      <c r="C69" t="s">
+        <v>473</v>
+      </c>
+      <c r="D69" t="s">
+        <v>473</v>
+      </c>
+      <c r="E69" t="s">
+        <v>473</v>
+      </c>
+      <c r="F69" t="s">
+        <v>473</v>
+      </c>
+      <c r="G69" t="s">
+        <v>478</v>
+      </c>
+      <c r="H69" t="s">
+        <v>473</v>
+      </c>
+      <c r="I69" t="s">
+        <v>473</v>
+      </c>
+      <c r="J69" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
+      <c r="B70" t="s">
+        <v>473</v>
+      </c>
+      <c r="C70" t="s">
+        <v>473</v>
+      </c>
+      <c r="D70" t="s">
+        <v>473</v>
+      </c>
+      <c r="E70" t="s">
+        <v>473</v>
+      </c>
+      <c r="F70" t="s">
+        <v>473</v>
+      </c>
+      <c r="G70" t="s">
+        <v>608</v>
+      </c>
+      <c r="H70" t="s">
+        <v>473</v>
+      </c>
+      <c r="I70" t="s">
+        <v>473</v>
+      </c>
+      <c r="J70" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
+      <c r="B71" t="s">
+        <v>473</v>
+      </c>
+      <c r="C71" t="s">
+        <v>473</v>
+      </c>
+      <c r="D71" t="s">
+        <v>473</v>
+      </c>
+      <c r="E71" t="s">
+        <v>473</v>
+      </c>
+      <c r="F71" t="s">
+        <v>473</v>
+      </c>
+      <c r="G71" t="s">
+        <v>475</v>
+      </c>
+      <c r="H71" t="s">
+        <v>473</v>
+      </c>
+      <c r="I71" t="s">
+        <v>473</v>
+      </c>
+      <c r="J71" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
+      <c r="B72" t="s">
+        <v>473</v>
+      </c>
+      <c r="C72" t="s">
+        <v>473</v>
+      </c>
+      <c r="D72" t="s">
+        <v>473</v>
+      </c>
+      <c r="E72" t="s">
+        <v>473</v>
+      </c>
+      <c r="F72" t="s">
+        <v>473</v>
+      </c>
+      <c r="G72" t="s">
+        <v>475</v>
+      </c>
+      <c r="H72" t="s">
+        <v>473</v>
+      </c>
+      <c r="I72" t="s">
+        <v>473</v>
+      </c>
+      <c r="J72" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
+      <c r="B73" t="s">
+        <v>473</v>
+      </c>
+      <c r="C73" t="s">
+        <v>473</v>
+      </c>
+      <c r="D73" t="s">
+        <v>473</v>
+      </c>
+      <c r="E73" t="s">
+        <v>473</v>
+      </c>
+      <c r="F73" t="s">
+        <v>473</v>
+      </c>
+      <c r="G73" t="s">
+        <v>476</v>
+      </c>
+      <c r="H73" t="s">
+        <v>473</v>
+      </c>
+      <c r="I73" t="s">
+        <v>473</v>
+      </c>
+      <c r="J73" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
+      <c r="B74" t="s">
+        <v>473</v>
+      </c>
+      <c r="C74" t="s">
+        <v>473</v>
+      </c>
+      <c r="D74" t="s">
+        <v>473</v>
+      </c>
+      <c r="E74" t="s">
+        <v>473</v>
+      </c>
+      <c r="F74" t="s">
+        <v>473</v>
+      </c>
+      <c r="G74" t="s">
+        <v>478</v>
+      </c>
+      <c r="H74" t="s">
+        <v>473</v>
+      </c>
+      <c r="I74" t="s">
+        <v>473</v>
+      </c>
+      <c r="J74" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
+      <c r="B75" t="s">
+        <v>473</v>
+      </c>
+      <c r="C75" t="s">
+        <v>473</v>
+      </c>
+      <c r="D75" t="s">
+        <v>473</v>
+      </c>
+      <c r="E75" t="s">
+        <v>473</v>
+      </c>
+      <c r="F75" t="s">
+        <v>473</v>
+      </c>
+      <c r="G75" t="s">
+        <v>608</v>
+      </c>
+      <c r="H75" t="s">
+        <v>473</v>
+      </c>
+      <c r="I75" t="s">
+        <v>473</v>
+      </c>
+      <c r="J75" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
+      <c r="B76" t="s">
+        <v>473</v>
+      </c>
+      <c r="C76" t="s">
+        <v>473</v>
+      </c>
+      <c r="D76" t="s">
+        <v>473</v>
+      </c>
+      <c r="E76" t="s">
+        <v>473</v>
+      </c>
+      <c r="F76" t="s">
+        <v>473</v>
+      </c>
+      <c r="G76" t="s">
+        <v>475</v>
+      </c>
+      <c r="H76" t="s">
+        <v>473</v>
+      </c>
+      <c r="I76" t="s">
+        <v>473</v>
+      </c>
+      <c r="J76" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
+      <c r="B77" t="s">
+        <v>473</v>
+      </c>
+      <c r="C77" t="s">
+        <v>473</v>
+      </c>
+      <c r="D77" t="s">
+        <v>473</v>
+      </c>
+      <c r="E77" t="s">
+        <v>473</v>
+      </c>
+      <c r="F77" t="s">
+        <v>473</v>
+      </c>
+      <c r="G77" t="s">
+        <v>608</v>
+      </c>
+      <c r="H77" t="s">
+        <v>473</v>
+      </c>
+      <c r="I77" t="s">
+        <v>473</v>
+      </c>
+      <c r="J77" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
+      <c r="B78" t="s">
+        <v>473</v>
+      </c>
+      <c r="C78" t="s">
+        <v>473</v>
+      </c>
+      <c r="D78" t="s">
+        <v>473</v>
+      </c>
+      <c r="E78" t="s">
+        <v>473</v>
+      </c>
+      <c r="F78" t="s">
+        <v>473</v>
+      </c>
+      <c r="G78" t="s">
+        <v>608</v>
+      </c>
+      <c r="H78" t="s">
+        <v>473</v>
+      </c>
+      <c r="I78" t="s">
+        <v>473</v>
+      </c>
+      <c r="J78" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
+      <c r="B79" t="s">
+        <v>473</v>
+      </c>
+      <c r="C79" t="s">
+        <v>473</v>
+      </c>
+      <c r="D79" t="s">
+        <v>473</v>
+      </c>
+      <c r="E79" t="s">
+        <v>473</v>
+      </c>
+      <c r="F79" t="s">
+        <v>473</v>
+      </c>
+      <c r="G79" t="s">
+        <v>608</v>
+      </c>
+      <c r="H79" t="s">
+        <v>473</v>
+      </c>
+      <c r="I79" t="s">
+        <v>473</v>
+      </c>
+      <c r="J79" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
+      <c r="B80" t="s">
+        <v>473</v>
+      </c>
+      <c r="C80" t="s">
+        <v>473</v>
+      </c>
+      <c r="D80" t="s">
+        <v>473</v>
+      </c>
+      <c r="E80" t="s">
+        <v>473</v>
+      </c>
+      <c r="F80" t="s">
+        <v>473</v>
+      </c>
+      <c r="G80" t="s">
+        <v>473</v>
+      </c>
+      <c r="H80" t="s">
+        <v>473</v>
+      </c>
+      <c r="I80" t="s">
+        <v>473</v>
+      </c>
+      <c r="J80" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
+      <c r="B81" t="s">
+        <v>473</v>
+      </c>
+      <c r="C81" t="s">
+        <v>473</v>
+      </c>
+      <c r="D81" t="s">
+        <v>473</v>
+      </c>
+      <c r="E81" t="s">
+        <v>473</v>
+      </c>
+      <c r="F81" t="s">
+        <v>473</v>
+      </c>
+      <c r="G81" t="s">
+        <v>476</v>
+      </c>
+      <c r="H81" t="s">
+        <v>473</v>
+      </c>
+      <c r="I81" t="s">
+        <v>473</v>
+      </c>
+      <c r="J81" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
+      <c r="B82" t="s">
+        <v>473</v>
+      </c>
+      <c r="C82" t="s">
+        <v>473</v>
+      </c>
+      <c r="D82" t="s">
+        <v>473</v>
+      </c>
+      <c r="E82" t="s">
+        <v>473</v>
+      </c>
+      <c r="F82" t="s">
+        <v>473</v>
+      </c>
+      <c r="G82" t="s">
+        <v>478</v>
+      </c>
+      <c r="H82" t="s">
+        <v>473</v>
+      </c>
+      <c r="I82" t="s">
+        <v>473</v>
+      </c>
+      <c r="J82" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
+      <c r="B83" t="s">
+        <v>473</v>
+      </c>
+      <c r="C83" t="s">
+        <v>473</v>
+      </c>
+      <c r="D83" t="s">
+        <v>473</v>
+      </c>
+      <c r="E83" t="s">
+        <v>473</v>
+      </c>
+      <c r="F83" t="s">
+        <v>473</v>
+      </c>
+      <c r="G83" t="s">
+        <v>608</v>
+      </c>
+      <c r="H83" t="s">
+        <v>473</v>
+      </c>
+      <c r="I83" t="s">
+        <v>473</v>
+      </c>
+      <c r="J83" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
+      <c r="B84" t="s">
+        <v>473</v>
+      </c>
+      <c r="C84" t="s">
+        <v>473</v>
+      </c>
+      <c r="D84" t="s">
+        <v>473</v>
+      </c>
+      <c r="E84" t="s">
+        <v>473</v>
+      </c>
+      <c r="F84" t="s">
+        <v>473</v>
+      </c>
+      <c r="G84" t="s">
+        <v>473</v>
+      </c>
+      <c r="H84" t="s">
+        <v>473</v>
+      </c>
+      <c r="I84" t="s">
+        <v>473</v>
+      </c>
+      <c r="J84" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
+      <c r="B85" t="s">
+        <v>473</v>
+      </c>
+      <c r="C85" t="s">
+        <v>473</v>
+      </c>
+      <c r="D85" t="s">
+        <v>473</v>
+      </c>
+      <c r="E85" t="s">
+        <v>473</v>
+      </c>
+      <c r="F85" t="s">
+        <v>473</v>
+      </c>
+      <c r="G85" t="s">
+        <v>473</v>
+      </c>
+      <c r="H85" t="s">
+        <v>473</v>
+      </c>
+      <c r="I85" t="s">
+        <v>473</v>
+      </c>
+      <c r="J85" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
+      <c r="B86" t="s">
+        <v>473</v>
+      </c>
+      <c r="C86" t="s">
+        <v>473</v>
+      </c>
+      <c r="D86" t="s">
+        <v>473</v>
+      </c>
+      <c r="E86" t="s">
+        <v>473</v>
+      </c>
+      <c r="F86" t="s">
+        <v>473</v>
+      </c>
+      <c r="G86" t="s">
+        <v>475</v>
+      </c>
+      <c r="H86" t="s">
+        <v>473</v>
+      </c>
+      <c r="I86" t="s">
+        <v>473</v>
+      </c>
+      <c r="J86" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
+      <c r="B87" t="s">
+        <v>473</v>
+      </c>
+      <c r="C87" t="s">
+        <v>473</v>
+      </c>
+      <c r="D87" t="s">
+        <v>473</v>
+      </c>
+      <c r="E87" t="s">
+        <v>473</v>
+      </c>
+      <c r="F87" t="s">
+        <v>473</v>
+      </c>
+      <c r="G87" t="s">
+        <v>475</v>
+      </c>
+      <c r="H87" t="s">
+        <v>473</v>
+      </c>
+      <c r="I87" t="s">
+        <v>473</v>
+      </c>
+      <c r="J87" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
+      <c r="B88" t="s">
+        <v>473</v>
+      </c>
+      <c r="C88" t="s">
+        <v>473</v>
+      </c>
+      <c r="D88" t="s">
+        <v>473</v>
+      </c>
+      <c r="E88" t="s">
+        <v>473</v>
+      </c>
+      <c r="F88" t="s">
+        <v>473</v>
+      </c>
+      <c r="G88" t="s">
+        <v>475</v>
+      </c>
+      <c r="H88" t="s">
+        <v>473</v>
+      </c>
+      <c r="I88" t="s">
+        <v>473</v>
+      </c>
+      <c r="J88" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
+      <c r="B89" t="s">
+        <v>473</v>
+      </c>
+      <c r="C89" t="s">
+        <v>473</v>
+      </c>
+      <c r="D89" t="s">
+        <v>473</v>
+      </c>
+      <c r="E89" t="s">
+        <v>473</v>
+      </c>
+      <c r="F89" t="s">
+        <v>473</v>
+      </c>
+      <c r="G89" t="s">
+        <v>475</v>
+      </c>
+      <c r="H89" t="s">
+        <v>473</v>
+      </c>
+      <c r="I89" t="s">
+        <v>473</v>
+      </c>
+      <c r="J89" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
+      <c r="B90" t="s">
+        <v>473</v>
+      </c>
+      <c r="C90" t="s">
+        <v>473</v>
+      </c>
+      <c r="D90" t="s">
+        <v>473</v>
+      </c>
+      <c r="E90" t="s">
+        <v>473</v>
+      </c>
+      <c r="F90" t="s">
+        <v>473</v>
+      </c>
+      <c r="G90" t="s">
+        <v>475</v>
+      </c>
+      <c r="H90" t="s">
+        <v>473</v>
+      </c>
+      <c r="I90" t="s">
+        <v>473</v>
+      </c>
+      <c r="J90" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
+      <c r="B91" t="s">
+        <v>473</v>
+      </c>
+      <c r="C91" t="s">
+        <v>473</v>
+      </c>
+      <c r="D91" t="s">
+        <v>473</v>
+      </c>
+      <c r="E91" t="s">
+        <v>473</v>
+      </c>
+      <c r="F91" t="s">
+        <v>473</v>
+      </c>
+      <c r="G91" t="s">
+        <v>478</v>
+      </c>
+      <c r="H91" t="s">
+        <v>473</v>
+      </c>
+      <c r="I91" t="s">
+        <v>473</v>
+      </c>
+      <c r="J91" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
+      <c r="B92" t="s">
+        <v>473</v>
+      </c>
+      <c r="C92" t="s">
+        <v>473</v>
+      </c>
+      <c r="D92" t="s">
+        <v>473</v>
+      </c>
+      <c r="E92" t="s">
+        <v>473</v>
+      </c>
+      <c r="F92" t="s">
+        <v>473</v>
+      </c>
+      <c r="G92" t="s">
+        <v>608</v>
+      </c>
+      <c r="H92" t="s">
+        <v>473</v>
+      </c>
+      <c r="I92" t="s">
+        <v>473</v>
+      </c>
+      <c r="J92" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
+      <c r="B93" t="s">
+        <v>473</v>
+      </c>
+      <c r="C93" t="s">
+        <v>473</v>
+      </c>
+      <c r="D93" t="s">
+        <v>473</v>
+      </c>
+      <c r="E93" t="s">
+        <v>473</v>
+      </c>
+      <c r="F93" t="s">
+        <v>473</v>
+      </c>
+      <c r="G93" t="s">
+        <v>478</v>
+      </c>
+      <c r="H93" t="s">
+        <v>473</v>
+      </c>
+      <c r="I93" t="s">
+        <v>473</v>
+      </c>
+      <c r="J93" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
+      <c r="B94" t="s">
+        <v>473</v>
+      </c>
+      <c r="C94" t="s">
+        <v>473</v>
+      </c>
+      <c r="D94" t="s">
+        <v>473</v>
+      </c>
+      <c r="E94" t="s">
+        <v>473</v>
+      </c>
+      <c r="F94" t="s">
+        <v>473</v>
+      </c>
+      <c r="G94" t="s">
+        <v>608</v>
+      </c>
+      <c r="H94" t="s">
+        <v>473</v>
+      </c>
+      <c r="I94" t="s">
+        <v>473</v>
+      </c>
+      <c r="J94" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
+      <c r="B95" t="s">
+        <v>473</v>
+      </c>
+      <c r="C95" t="s">
+        <v>473</v>
+      </c>
+      <c r="D95" t="s">
+        <v>473</v>
+      </c>
+      <c r="E95" t="s">
+        <v>473</v>
+      </c>
+      <c r="F95" t="s">
+        <v>473</v>
+      </c>
+      <c r="G95" t="s">
+        <v>475</v>
+      </c>
+      <c r="H95" t="s">
+        <v>473</v>
+      </c>
+      <c r="I95" t="s">
+        <v>473</v>
+      </c>
+      <c r="J95" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
+      <c r="B96" t="s">
+        <v>473</v>
+      </c>
+      <c r="C96" t="s">
+        <v>473</v>
+      </c>
+      <c r="D96" t="s">
+        <v>473</v>
+      </c>
+      <c r="E96" t="s">
+        <v>473</v>
+      </c>
+      <c r="F96" t="s">
+        <v>473</v>
+      </c>
+      <c r="G96" t="s">
+        <v>473</v>
+      </c>
+      <c r="H96" t="s">
+        <v>473</v>
+      </c>
+      <c r="I96" t="s">
+        <v>473</v>
+      </c>
+      <c r="J96" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
+      <c r="B97" t="s">
+        <v>473</v>
+      </c>
+      <c r="C97" t="s">
+        <v>473</v>
+      </c>
+      <c r="D97" t="s">
+        <v>473</v>
+      </c>
+      <c r="E97" t="s">
+        <v>473</v>
+      </c>
+      <c r="F97" t="s">
+        <v>473</v>
+      </c>
+      <c r="G97" t="s">
+        <v>478</v>
+      </c>
+      <c r="H97" t="s">
+        <v>473</v>
+      </c>
+      <c r="I97" t="s">
+        <v>473</v>
+      </c>
+      <c r="J97" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
+      <c r="B98" t="s">
+        <v>473</v>
+      </c>
+      <c r="C98" t="s">
+        <v>473</v>
+      </c>
+      <c r="D98" t="s">
+        <v>473</v>
+      </c>
+      <c r="E98" t="s">
+        <v>473</v>
+      </c>
+      <c r="F98" t="s">
+        <v>473</v>
+      </c>
+      <c r="G98" t="s">
+        <v>473</v>
+      </c>
+      <c r="H98" t="s">
+        <v>473</v>
+      </c>
+      <c r="I98" t="s">
+        <v>473</v>
+      </c>
+      <c r="J98" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
+      <c r="B99" t="s">
+        <v>473</v>
+      </c>
+      <c r="C99" t="s">
+        <v>473</v>
+      </c>
+      <c r="D99" t="s">
+        <v>473</v>
+      </c>
+      <c r="E99" t="s">
+        <v>473</v>
+      </c>
+      <c r="F99" t="s">
+        <v>473</v>
+      </c>
+      <c r="G99" t="s">
+        <v>473</v>
+      </c>
+      <c r="H99" t="s">
+        <v>473</v>
+      </c>
+      <c r="I99" t="s">
+        <v>473</v>
+      </c>
+      <c r="J99" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
+      <c r="B100" t="s">
+        <v>473</v>
+      </c>
+      <c r="C100" t="s">
+        <v>473</v>
+      </c>
+      <c r="D100" t="s">
+        <v>473</v>
+      </c>
+      <c r="E100" t="s">
+        <v>473</v>
+      </c>
+      <c r="F100" t="s">
+        <v>473</v>
+      </c>
+      <c r="G100" t="s">
+        <v>478</v>
+      </c>
+      <c r="H100" t="s">
+        <v>473</v>
+      </c>
+      <c r="I100" t="s">
+        <v>473</v>
+      </c>
+      <c r="J100" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
+      <c r="B101" t="s">
+        <v>473</v>
+      </c>
+      <c r="C101" t="s">
+        <v>473</v>
+      </c>
+      <c r="D101" t="s">
+        <v>473</v>
+      </c>
+      <c r="E101" t="s">
+        <v>473</v>
+      </c>
+      <c r="F101" t="s">
+        <v>473</v>
+      </c>
+      <c r="G101" t="s">
+        <v>476</v>
+      </c>
+      <c r="H101" t="s">
+        <v>473</v>
+      </c>
+      <c r="I101" t="s">
+        <v>473</v>
+      </c>
+      <c r="J101" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
+      <c r="B102" t="s">
+        <v>473</v>
+      </c>
+      <c r="C102" t="s">
+        <v>473</v>
+      </c>
+      <c r="D102" t="s">
+        <v>473</v>
+      </c>
+      <c r="E102" t="s">
+        <v>473</v>
+      </c>
+      <c r="F102" t="s">
+        <v>473</v>
+      </c>
+      <c r="G102" t="s">
+        <v>475</v>
+      </c>
+      <c r="H102" t="s">
+        <v>473</v>
+      </c>
+      <c r="I102" t="s">
+        <v>473</v>
+      </c>
+      <c r="J102" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
+      <c r="B103" t="s">
+        <v>473</v>
+      </c>
+      <c r="C103" t="s">
+        <v>473</v>
+      </c>
+      <c r="D103" t="s">
+        <v>473</v>
+      </c>
+      <c r="E103" t="s">
+        <v>473</v>
+      </c>
+      <c r="F103" t="s">
+        <v>473</v>
+      </c>
+      <c r="G103" t="s">
+        <v>475</v>
+      </c>
+      <c r="H103" t="s">
+        <v>473</v>
+      </c>
+      <c r="I103" t="s">
+        <v>473</v>
+      </c>
+      <c r="J103" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
+      <c r="B104" t="s">
+        <v>473</v>
+      </c>
+      <c r="C104" t="s">
+        <v>473</v>
+      </c>
+      <c r="D104" t="s">
+        <v>473</v>
+      </c>
+      <c r="E104" t="s">
+        <v>473</v>
+      </c>
+      <c r="F104" t="s">
+        <v>473</v>
+      </c>
+      <c r="G104" t="s">
+        <v>475</v>
+      </c>
+      <c r="H104" t="s">
+        <v>473</v>
+      </c>
+      <c r="I104" t="s">
+        <v>473</v>
+      </c>
+      <c r="J104" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
+      <c r="B105" t="s">
+        <v>473</v>
+      </c>
+      <c r="C105" t="s">
+        <v>473</v>
+      </c>
+      <c r="D105" t="s">
+        <v>473</v>
+      </c>
+      <c r="E105" t="s">
+        <v>473</v>
+      </c>
+      <c r="F105" t="s">
+        <v>473</v>
+      </c>
+      <c r="G105" t="s">
+        <v>475</v>
+      </c>
+      <c r="H105" t="s">
+        <v>473</v>
+      </c>
+      <c r="I105" t="s">
+        <v>473</v>
+      </c>
+      <c r="J105" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
+      <c r="B106" t="s">
+        <v>473</v>
+      </c>
+      <c r="C106" t="s">
+        <v>473</v>
+      </c>
+      <c r="D106" t="s">
+        <v>473</v>
+      </c>
+      <c r="E106" t="s">
+        <v>473</v>
+      </c>
+      <c r="F106" t="s">
+        <v>473</v>
+      </c>
+      <c r="G106" t="s">
+        <v>475</v>
+      </c>
+      <c r="H106" t="s">
+        <v>473</v>
+      </c>
+      <c r="I106" t="s">
+        <v>473</v>
+      </c>
+      <c r="J106" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
+      <c r="B107" t="s">
+        <v>473</v>
+      </c>
+      <c r="C107" t="s">
+        <v>473</v>
+      </c>
+      <c r="D107" t="s">
+        <v>473</v>
+      </c>
+      <c r="E107" t="s">
+        <v>473</v>
+      </c>
+      <c r="F107" t="s">
+        <v>473</v>
+      </c>
+      <c r="G107" t="s">
+        <v>475</v>
+      </c>
+      <c r="H107" t="s">
+        <v>473</v>
+      </c>
+      <c r="I107" t="s">
+        <v>473</v>
+      </c>
+      <c r="J107" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
+      <c r="B108" t="s">
+        <v>473</v>
+      </c>
+      <c r="C108" t="s">
+        <v>473</v>
+      </c>
+      <c r="D108" t="s">
+        <v>473</v>
+      </c>
+      <c r="E108" t="s">
+        <v>473</v>
+      </c>
+      <c r="F108" t="s">
+        <v>473</v>
+      </c>
+      <c r="G108" t="s">
+        <v>475</v>
+      </c>
+      <c r="H108" t="s">
+        <v>473</v>
+      </c>
+      <c r="I108" t="s">
+        <v>473</v>
+      </c>
+      <c r="J108" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" t="s">
+      <c r="B109" t="s">
+        <v>473</v>
+      </c>
+      <c r="C109" t="s">
+        <v>473</v>
+      </c>
+      <c r="D109" t="s">
+        <v>473</v>
+      </c>
+      <c r="E109" t="s">
+        <v>473</v>
+      </c>
+      <c r="F109" t="s">
+        <v>473</v>
+      </c>
+      <c r="G109" t="s">
+        <v>475</v>
+      </c>
+      <c r="H109" t="s">
+        <v>473</v>
+      </c>
+      <c r="I109" t="s">
+        <v>473</v>
+      </c>
+      <c r="J109" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" t="s">
+      <c r="B110" t="s">
+        <v>473</v>
+      </c>
+      <c r="C110" t="s">
+        <v>473</v>
+      </c>
+      <c r="D110" t="s">
+        <v>473</v>
+      </c>
+      <c r="E110" t="s">
+        <v>473</v>
+      </c>
+      <c r="F110" t="s">
+        <v>473</v>
+      </c>
+      <c r="G110" t="s">
+        <v>475</v>
+      </c>
+      <c r="H110" t="s">
+        <v>473</v>
+      </c>
+      <c r="I110" t="s">
+        <v>473</v>
+      </c>
+      <c r="J110" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" t="s">
+      <c r="B111" t="s">
+        <v>473</v>
+      </c>
+      <c r="C111" t="s">
+        <v>473</v>
+      </c>
+      <c r="D111" t="s">
+        <v>473</v>
+      </c>
+      <c r="E111" t="s">
+        <v>473</v>
+      </c>
+      <c r="F111" t="s">
+        <v>473</v>
+      </c>
+      <c r="G111" t="s">
+        <v>475</v>
+      </c>
+      <c r="H111" t="s">
+        <v>473</v>
+      </c>
+      <c r="I111" t="s">
+        <v>473</v>
+      </c>
+      <c r="J111" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" t="s">
+      <c r="B112" t="s">
+        <v>473</v>
+      </c>
+      <c r="C112" t="s">
+        <v>473</v>
+      </c>
+      <c r="D112" t="s">
+        <v>473</v>
+      </c>
+      <c r="E112" t="s">
+        <v>473</v>
+      </c>
+      <c r="F112" t="s">
+        <v>473</v>
+      </c>
+      <c r="G112" t="s">
+        <v>475</v>
+      </c>
+      <c r="H112" t="s">
+        <v>473</v>
+      </c>
+      <c r="I112" t="s">
+        <v>473</v>
+      </c>
+      <c r="J112" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" t="s">
+      <c r="B113" t="s">
+        <v>473</v>
+      </c>
+      <c r="C113" t="s">
+        <v>473</v>
+      </c>
+      <c r="D113" t="s">
+        <v>473</v>
+      </c>
+      <c r="E113" t="s">
+        <v>473</v>
+      </c>
+      <c r="F113" t="s">
+        <v>473</v>
+      </c>
+      <c r="G113" t="s">
+        <v>475</v>
+      </c>
+      <c r="H113" t="s">
+        <v>473</v>
+      </c>
+      <c r="I113" t="s">
+        <v>473</v>
+      </c>
+      <c r="J113" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" t="s">
+      <c r="B114" t="s">
+        <v>473</v>
+      </c>
+      <c r="C114" t="s">
+        <v>473</v>
+      </c>
+      <c r="D114" t="s">
+        <v>473</v>
+      </c>
+      <c r="E114" t="s">
+        <v>473</v>
+      </c>
+      <c r="F114" t="s">
+        <v>473</v>
+      </c>
+      <c r="G114" t="s">
+        <v>475</v>
+      </c>
+      <c r="H114" t="s">
+        <v>473</v>
+      </c>
+      <c r="I114" t="s">
+        <v>473</v>
+      </c>
+      <c r="J114" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" t="s">
+      <c r="B115" t="s">
+        <v>473</v>
+      </c>
+      <c r="C115" t="s">
+        <v>473</v>
+      </c>
+      <c r="D115" t="s">
+        <v>473</v>
+      </c>
+      <c r="E115" t="s">
+        <v>473</v>
+      </c>
+      <c r="F115" t="s">
+        <v>473</v>
+      </c>
+      <c r="G115" t="s">
+        <v>475</v>
+      </c>
+      <c r="H115" t="s">
+        <v>473</v>
+      </c>
+      <c r="I115" t="s">
+        <v>473</v>
+      </c>
+      <c r="J115" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" t="s">
+      <c r="B116" t="s">
+        <v>473</v>
+      </c>
+      <c r="C116" t="s">
+        <v>473</v>
+      </c>
+      <c r="D116" t="s">
+        <v>473</v>
+      </c>
+      <c r="E116" t="s">
+        <v>473</v>
+      </c>
+      <c r="F116" t="s">
+        <v>473</v>
+      </c>
+      <c r="G116" t="s">
+        <v>475</v>
+      </c>
+      <c r="H116" t="s">
+        <v>473</v>
+      </c>
+      <c r="I116" t="s">
+        <v>473</v>
+      </c>
+      <c r="J116" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" t="s">
+      <c r="B117" t="s">
+        <v>473</v>
+      </c>
+      <c r="C117" t="s">
+        <v>473</v>
+      </c>
+      <c r="D117" t="s">
+        <v>473</v>
+      </c>
+      <c r="E117" t="s">
+        <v>473</v>
+      </c>
+      <c r="F117" t="s">
+        <v>473</v>
+      </c>
+      <c r="G117" t="s">
+        <v>475</v>
+      </c>
+      <c r="H117" t="s">
+        <v>473</v>
+      </c>
+      <c r="I117" t="s">
+        <v>473</v>
+      </c>
+      <c r="J117" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" t="s">
+      <c r="B118" t="s">
+        <v>473</v>
+      </c>
+      <c r="C118" t="s">
+        <v>473</v>
+      </c>
+      <c r="D118" t="s">
+        <v>473</v>
+      </c>
+      <c r="E118" t="s">
+        <v>473</v>
+      </c>
+      <c r="F118" t="s">
+        <v>473</v>
+      </c>
+      <c r="G118" t="s">
+        <v>475</v>
+      </c>
+      <c r="H118" t="s">
+        <v>473</v>
+      </c>
+      <c r="I118" t="s">
+        <v>473</v>
+      </c>
+      <c r="J118" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" t="s">
+      <c r="B119" t="s">
+        <v>473</v>
+      </c>
+      <c r="C119" t="s">
+        <v>473</v>
+      </c>
+      <c r="D119" t="s">
+        <v>473</v>
+      </c>
+      <c r="E119" t="s">
+        <v>473</v>
+      </c>
+      <c r="F119" t="s">
+        <v>473</v>
+      </c>
+      <c r="G119" t="s">
+        <v>475</v>
+      </c>
+      <c r="H119" t="s">
+        <v>473</v>
+      </c>
+      <c r="I119" t="s">
+        <v>473</v>
+      </c>
+      <c r="J119" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" t="s">
+      <c r="B120" t="s">
+        <v>473</v>
+      </c>
+      <c r="C120" t="s">
+        <v>473</v>
+      </c>
+      <c r="D120" t="s">
+        <v>473</v>
+      </c>
+      <c r="E120" t="s">
+        <v>473</v>
+      </c>
+      <c r="F120" t="s">
+        <v>473</v>
+      </c>
+      <c r="G120" t="s">
+        <v>475</v>
+      </c>
+      <c r="H120" t="s">
+        <v>473</v>
+      </c>
+      <c r="I120" t="s">
+        <v>473</v>
+      </c>
+      <c r="J120" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" t="s">
+      <c r="B121" t="s">
+        <v>473</v>
+      </c>
+      <c r="C121" t="s">
+        <v>473</v>
+      </c>
+      <c r="D121" t="s">
+        <v>473</v>
+      </c>
+      <c r="E121" t="s">
+        <v>473</v>
+      </c>
+      <c r="F121" t="s">
+        <v>473</v>
+      </c>
+      <c r="G121" t="s">
+        <v>475</v>
+      </c>
+      <c r="H121" t="s">
+        <v>473</v>
+      </c>
+      <c r="I121" t="s">
+        <v>473</v>
+      </c>
+      <c r="J121" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" t="s">
+      <c r="B122" t="s">
+        <v>473</v>
+      </c>
+      <c r="C122" t="s">
+        <v>473</v>
+      </c>
+      <c r="D122" t="s">
+        <v>473</v>
+      </c>
+      <c r="E122" t="s">
+        <v>473</v>
+      </c>
+      <c r="F122" t="s">
+        <v>473</v>
+      </c>
+      <c r="G122" t="s">
+        <v>475</v>
+      </c>
+      <c r="H122" t="s">
+        <v>473</v>
+      </c>
+      <c r="I122" t="s">
+        <v>473</v>
+      </c>
+      <c r="J122" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" t="s">
+      <c r="B123" t="s">
+        <v>473</v>
+      </c>
+      <c r="C123" t="s">
+        <v>473</v>
+      </c>
+      <c r="D123" t="s">
+        <v>473</v>
+      </c>
+      <c r="E123" t="s">
+        <v>473</v>
+      </c>
+      <c r="F123" t="s">
+        <v>473</v>
+      </c>
+      <c r="G123" t="s">
+        <v>475</v>
+      </c>
+      <c r="H123" t="s">
+        <v>473</v>
+      </c>
+      <c r="I123" t="s">
+        <v>473</v>
+      </c>
+      <c r="J123" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" t="s">
+      <c r="B124" t="s">
+        <v>473</v>
+      </c>
+      <c r="C124" t="s">
+        <v>473</v>
+      </c>
+      <c r="D124" t="s">
+        <v>473</v>
+      </c>
+      <c r="E124" t="s">
+        <v>473</v>
+      </c>
+      <c r="F124" t="s">
+        <v>473</v>
+      </c>
+      <c r="G124" t="s">
+        <v>475</v>
+      </c>
+      <c r="H124" t="s">
+        <v>473</v>
+      </c>
+      <c r="I124" t="s">
+        <v>473</v>
+      </c>
+      <c r="J124" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" t="s">
+      <c r="B125" t="s">
+        <v>473</v>
+      </c>
+      <c r="C125" t="s">
+        <v>473</v>
+      </c>
+      <c r="D125" t="s">
+        <v>473</v>
+      </c>
+      <c r="E125" t="s">
+        <v>473</v>
+      </c>
+      <c r="F125" t="s">
+        <v>473</v>
+      </c>
+      <c r="G125" t="s">
+        <v>475</v>
+      </c>
+      <c r="H125" t="s">
+        <v>473</v>
+      </c>
+      <c r="I125" t="s">
+        <v>473</v>
+      </c>
+      <c r="J125" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" t="s">
+      <c r="B126" t="s">
+        <v>473</v>
+      </c>
+      <c r="C126" t="s">
+        <v>473</v>
+      </c>
+      <c r="D126" t="s">
+        <v>473</v>
+      </c>
+      <c r="E126" t="s">
+        <v>473</v>
+      </c>
+      <c r="F126" t="s">
+        <v>473</v>
+      </c>
+      <c r="G126" t="s">
+        <v>475</v>
+      </c>
+      <c r="H126" t="s">
+        <v>473</v>
+      </c>
+      <c r="I126" t="s">
+        <v>473</v>
+      </c>
+      <c r="J126" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" t="s">
+      <c r="B127" t="s">
+        <v>473</v>
+      </c>
+      <c r="C127" t="s">
+        <v>473</v>
+      </c>
+      <c r="D127" t="s">
+        <v>473</v>
+      </c>
+      <c r="E127" t="s">
+        <v>473</v>
+      </c>
+      <c r="F127" t="s">
+        <v>473</v>
+      </c>
+      <c r="G127" t="s">
+        <v>475</v>
+      </c>
+      <c r="H127" t="s">
+        <v>473</v>
+      </c>
+      <c r="I127" t="s">
+        <v>473</v>
+      </c>
+      <c r="J127" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" t="s">
+      <c r="B128" t="s">
+        <v>473</v>
+      </c>
+      <c r="C128" t="s">
+        <v>473</v>
+      </c>
+      <c r="D128" t="s">
+        <v>473</v>
+      </c>
+      <c r="E128" t="s">
+        <v>473</v>
+      </c>
+      <c r="F128" t="s">
+        <v>473</v>
+      </c>
+      <c r="G128" t="s">
+        <v>475</v>
+      </c>
+      <c r="H128" t="s">
+        <v>473</v>
+      </c>
+      <c r="I128" t="s">
+        <v>473</v>
+      </c>
+      <c r="J128" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" t="s">
+      <c r="B129" t="s">
+        <v>473</v>
+      </c>
+      <c r="C129" t="s">
+        <v>473</v>
+      </c>
+      <c r="D129" t="s">
+        <v>473</v>
+      </c>
+      <c r="E129" t="s">
+        <v>473</v>
+      </c>
+      <c r="F129" t="s">
+        <v>473</v>
+      </c>
+      <c r="G129" t="s">
+        <v>475</v>
+      </c>
+      <c r="H129" t="s">
+        <v>473</v>
+      </c>
+      <c r="I129" t="s">
+        <v>473</v>
+      </c>
+      <c r="J129" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" t="s">
+      <c r="B130" t="s">
+        <v>473</v>
+      </c>
+      <c r="C130" t="s">
+        <v>473</v>
+      </c>
+      <c r="D130" t="s">
+        <v>473</v>
+      </c>
+      <c r="E130" t="s">
+        <v>473</v>
+      </c>
+      <c r="F130" t="s">
+        <v>473</v>
+      </c>
+      <c r="G130" t="s">
+        <v>475</v>
+      </c>
+      <c r="H130" t="s">
+        <v>473</v>
+      </c>
+      <c r="I130" t="s">
+        <v>473</v>
+      </c>
+      <c r="J130" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" t="s">
+      <c r="B131" t="s">
+        <v>473</v>
+      </c>
+      <c r="C131" t="s">
+        <v>473</v>
+      </c>
+      <c r="D131" t="s">
+        <v>473</v>
+      </c>
+      <c r="E131" t="s">
+        <v>473</v>
+      </c>
+      <c r="F131" t="s">
+        <v>473</v>
+      </c>
+      <c r="G131" t="s">
+        <v>475</v>
+      </c>
+      <c r="H131" t="s">
+        <v>473</v>
+      </c>
+      <c r="I131" t="s">
+        <v>473</v>
+      </c>
+      <c r="J131" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" t="s">
+      <c r="B132" t="s">
+        <v>473</v>
+      </c>
+      <c r="C132" t="s">
+        <v>473</v>
+      </c>
+      <c r="D132" t="s">
+        <v>473</v>
+      </c>
+      <c r="E132" t="s">
+        <v>473</v>
+      </c>
+      <c r="F132" t="s">
+        <v>473</v>
+      </c>
+      <c r="G132" t="s">
+        <v>475</v>
+      </c>
+      <c r="H132" t="s">
+        <v>473</v>
+      </c>
+      <c r="I132" t="s">
+        <v>473</v>
+      </c>
+      <c r="J132" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" t="s">
+      <c r="B133" t="s">
+        <v>473</v>
+      </c>
+      <c r="C133" t="s">
+        <v>473</v>
+      </c>
+      <c r="D133" t="s">
+        <v>473</v>
+      </c>
+      <c r="E133" t="s">
+        <v>473</v>
+      </c>
+      <c r="F133" t="s">
+        <v>473</v>
+      </c>
+      <c r="G133" t="s">
+        <v>475</v>
+      </c>
+      <c r="H133" t="s">
+        <v>473</v>
+      </c>
+      <c r="I133" t="s">
+        <v>473</v>
+      </c>
+      <c r="J133" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" t="s">
+      <c r="B134" t="s">
+        <v>473</v>
+      </c>
+      <c r="C134" t="s">
+        <v>473</v>
+      </c>
+      <c r="D134" t="s">
+        <v>473</v>
+      </c>
+      <c r="E134" t="s">
+        <v>473</v>
+      </c>
+      <c r="F134" t="s">
+        <v>473</v>
+      </c>
+      <c r="G134" t="s">
+        <v>475</v>
+      </c>
+      <c r="H134" t="s">
+        <v>473</v>
+      </c>
+      <c r="I134" t="s">
+        <v>473</v>
+      </c>
+      <c r="J134" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" t="s">
+      <c r="B135" t="s">
+        <v>473</v>
+      </c>
+      <c r="C135" t="s">
+        <v>473</v>
+      </c>
+      <c r="D135" t="s">
+        <v>473</v>
+      </c>
+      <c r="E135" t="s">
+        <v>473</v>
+      </c>
+      <c r="F135" t="s">
+        <v>473</v>
+      </c>
+      <c r="G135" t="s">
+        <v>475</v>
+      </c>
+      <c r="H135" t="s">
+        <v>473</v>
+      </c>
+      <c r="I135" t="s">
+        <v>473</v>
+      </c>
+      <c r="J135" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" t="s">
+      <c r="B136" t="s">
+        <v>473</v>
+      </c>
+      <c r="C136" t="s">
+        <v>473</v>
+      </c>
+      <c r="D136" t="s">
+        <v>473</v>
+      </c>
+      <c r="E136" t="s">
+        <v>473</v>
+      </c>
+      <c r="F136" t="s">
+        <v>473</v>
+      </c>
+      <c r="G136" t="s">
+        <v>475</v>
+      </c>
+      <c r="H136" t="s">
+        <v>473</v>
+      </c>
+      <c r="I136" t="s">
+        <v>473</v>
+      </c>
+      <c r="J136" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" t="s">
+      <c r="B137" t="s">
+        <v>473</v>
+      </c>
+      <c r="C137" t="s">
+        <v>473</v>
+      </c>
+      <c r="D137" t="s">
+        <v>473</v>
+      </c>
+      <c r="E137" t="s">
+        <v>473</v>
+      </c>
+      <c r="F137" t="s">
+        <v>473</v>
+      </c>
+      <c r="G137" t="s">
+        <v>475</v>
+      </c>
+      <c r="H137" t="s">
+        <v>473</v>
+      </c>
+      <c r="I137" t="s">
+        <v>473</v>
+      </c>
+      <c r="J137" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" t="s">
+      <c r="B138" t="s">
+        <v>473</v>
+      </c>
+      <c r="C138" t="s">
+        <v>473</v>
+      </c>
+      <c r="D138" t="s">
+        <v>473</v>
+      </c>
+      <c r="E138" t="s">
+        <v>473</v>
+      </c>
+      <c r="F138" t="s">
+        <v>473</v>
+      </c>
+      <c r="G138" t="s">
+        <v>475</v>
+      </c>
+      <c r="H138" t="s">
+        <v>473</v>
+      </c>
+      <c r="I138" t="s">
+        <v>473</v>
+      </c>
+      <c r="J138" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" t="s">
+      <c r="B139" t="s">
+        <v>473</v>
+      </c>
+      <c r="C139" t="s">
+        <v>473</v>
+      </c>
+      <c r="D139" t="s">
+        <v>473</v>
+      </c>
+      <c r="E139" t="s">
+        <v>473</v>
+      </c>
+      <c r="F139" t="s">
+        <v>473</v>
+      </c>
+      <c r="G139" t="s">
+        <v>475</v>
+      </c>
+      <c r="H139" t="s">
+        <v>473</v>
+      </c>
+      <c r="I139" t="s">
+        <v>473</v>
+      </c>
+      <c r="J139" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" t="s">
+      <c r="B140" t="s">
+        <v>473</v>
+      </c>
+      <c r="C140" t="s">
+        <v>473</v>
+      </c>
+      <c r="D140" t="s">
+        <v>473</v>
+      </c>
+      <c r="E140" t="s">
+        <v>473</v>
+      </c>
+      <c r="F140" t="s">
+        <v>473</v>
+      </c>
+      <c r="G140" t="s">
+        <v>475</v>
+      </c>
+      <c r="H140" t="s">
+        <v>473</v>
+      </c>
+      <c r="I140" t="s">
+        <v>473</v>
+      </c>
+      <c r="J140" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" t="s">
+      <c r="B141" t="s">
+        <v>473</v>
+      </c>
+      <c r="C141" t="s">
+        <v>473</v>
+      </c>
+      <c r="D141" t="s">
+        <v>473</v>
+      </c>
+      <c r="E141" t="s">
+        <v>473</v>
+      </c>
+      <c r="F141" t="s">
+        <v>473</v>
+      </c>
+      <c r="G141" t="s">
+        <v>475</v>
+      </c>
+      <c r="H141" t="s">
+        <v>473</v>
+      </c>
+      <c r="I141" t="s">
+        <v>473</v>
+      </c>
+      <c r="J141" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" t="s">
+      <c r="B142" t="s">
+        <v>473</v>
+      </c>
+      <c r="C142" t="s">
+        <v>473</v>
+      </c>
+      <c r="D142" t="s">
+        <v>473</v>
+      </c>
+      <c r="E142" t="s">
+        <v>473</v>
+      </c>
+      <c r="F142" t="s">
+        <v>473</v>
+      </c>
+      <c r="G142" t="s">
+        <v>475</v>
+      </c>
+      <c r="H142" t="s">
+        <v>473</v>
+      </c>
+      <c r="I142" t="s">
+        <v>473</v>
+      </c>
+      <c r="J142" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" t="s">
+      <c r="B143" t="s">
+        <v>473</v>
+      </c>
+      <c r="C143" t="s">
+        <v>473</v>
+      </c>
+      <c r="D143" t="s">
+        <v>473</v>
+      </c>
+      <c r="E143" t="s">
+        <v>473</v>
+      </c>
+      <c r="F143" t="s">
+        <v>473</v>
+      </c>
+      <c r="G143" t="s">
+        <v>475</v>
+      </c>
+      <c r="H143" t="s">
+        <v>473</v>
+      </c>
+      <c r="I143" t="s">
+        <v>473</v>
+      </c>
+      <c r="J143" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="A144" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" t="s">
+      <c r="B144" t="s">
+        <v>473</v>
+      </c>
+      <c r="C144" t="s">
+        <v>473</v>
+      </c>
+      <c r="D144" t="s">
+        <v>473</v>
+      </c>
+      <c r="E144" t="s">
+        <v>473</v>
+      </c>
+      <c r="F144" t="s">
+        <v>473</v>
+      </c>
+      <c r="G144" t="s">
+        <v>475</v>
+      </c>
+      <c r="H144" t="s">
+        <v>473</v>
+      </c>
+      <c r="I144" t="s">
+        <v>473</v>
+      </c>
+      <c r="J144" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
+      <c r="A145" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
+      <c r="B145" t="s">
+        <v>473</v>
+      </c>
+      <c r="C145" t="s">
+        <v>473</v>
+      </c>
+      <c r="D145" t="s">
+        <v>473</v>
+      </c>
+      <c r="E145" t="s">
+        <v>473</v>
+      </c>
+      <c r="F145" t="s">
+        <v>473</v>
+      </c>
+      <c r="G145" t="s">
+        <v>475</v>
+      </c>
+      <c r="H145" t="s">
+        <v>473</v>
+      </c>
+      <c r="I145" t="s">
+        <v>473</v>
+      </c>
+      <c r="J145" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="A146" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" t="s">
+      <c r="B146" t="s">
+        <v>473</v>
+      </c>
+      <c r="C146" t="s">
+        <v>473</v>
+      </c>
+      <c r="D146" t="s">
+        <v>473</v>
+      </c>
+      <c r="E146" t="s">
+        <v>473</v>
+      </c>
+      <c r="F146" t="s">
+        <v>473</v>
+      </c>
+      <c r="G146" t="s">
+        <v>475</v>
+      </c>
+      <c r="H146" t="s">
+        <v>473</v>
+      </c>
+      <c r="I146" t="s">
+        <v>473</v>
+      </c>
+      <c r="J146" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
+      <c r="A147" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" t="s">
+      <c r="B147" t="s">
+        <v>473</v>
+      </c>
+      <c r="C147" t="s">
+        <v>473</v>
+      </c>
+      <c r="D147" t="s">
+        <v>473</v>
+      </c>
+      <c r="E147" t="s">
+        <v>473</v>
+      </c>
+      <c r="F147" t="s">
+        <v>473</v>
+      </c>
+      <c r="G147" t="s">
+        <v>475</v>
+      </c>
+      <c r="H147" t="s">
+        <v>473</v>
+      </c>
+      <c r="I147" t="s">
+        <v>473</v>
+      </c>
+      <c r="J147" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="A148" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" t="s">
+      <c r="B148" t="s">
+        <v>473</v>
+      </c>
+      <c r="C148" t="s">
+        <v>473</v>
+      </c>
+      <c r="D148" t="s">
+        <v>473</v>
+      </c>
+      <c r="E148" t="s">
+        <v>473</v>
+      </c>
+      <c r="F148" t="s">
+        <v>473</v>
+      </c>
+      <c r="G148" t="s">
+        <v>475</v>
+      </c>
+      <c r="H148" t="s">
+        <v>473</v>
+      </c>
+      <c r="I148" t="s">
+        <v>473</v>
+      </c>
+      <c r="J148" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
+      <c r="A149" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" t="s">
+      <c r="B149" t="s">
+        <v>473</v>
+      </c>
+      <c r="C149" t="s">
+        <v>473</v>
+      </c>
+      <c r="D149" t="s">
+        <v>473</v>
+      </c>
+      <c r="E149" t="s">
+        <v>473</v>
+      </c>
+      <c r="F149" t="s">
+        <v>473</v>
+      </c>
+      <c r="G149" t="s">
+        <v>475</v>
+      </c>
+      <c r="H149" t="s">
+        <v>473</v>
+      </c>
+      <c r="I149" t="s">
+        <v>473</v>
+      </c>
+      <c r="J149" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
+      <c r="A150" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" t="s">
+      <c r="B150" t="s">
+        <v>473</v>
+      </c>
+      <c r="C150" t="s">
+        <v>473</v>
+      </c>
+      <c r="D150" t="s">
+        <v>473</v>
+      </c>
+      <c r="E150" t="s">
+        <v>473</v>
+      </c>
+      <c r="F150" t="s">
+        <v>473</v>
+      </c>
+      <c r="G150" t="s">
+        <v>475</v>
+      </c>
+      <c r="H150" t="s">
+        <v>473</v>
+      </c>
+      <c r="I150" t="s">
+        <v>473</v>
+      </c>
+      <c r="J150" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
+      <c r="A151" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" t="s">
+      <c r="B151" t="s">
+        <v>473</v>
+      </c>
+      <c r="C151" t="s">
+        <v>473</v>
+      </c>
+      <c r="D151" t="s">
+        <v>473</v>
+      </c>
+      <c r="E151" t="s">
+        <v>473</v>
+      </c>
+      <c r="F151" t="s">
+        <v>473</v>
+      </c>
+      <c r="G151" t="s">
+        <v>475</v>
+      </c>
+      <c r="H151" t="s">
+        <v>473</v>
+      </c>
+      <c r="I151" t="s">
+        <v>473</v>
+      </c>
+      <c r="J151" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
+      <c r="A152" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" t="s">
+      <c r="B152" t="s">
+        <v>473</v>
+      </c>
+      <c r="C152" t="s">
+        <v>473</v>
+      </c>
+      <c r="D152" t="s">
+        <v>473</v>
+      </c>
+      <c r="E152" t="s">
+        <v>473</v>
+      </c>
+      <c r="F152" t="s">
+        <v>473</v>
+      </c>
+      <c r="G152" t="s">
+        <v>475</v>
+      </c>
+      <c r="H152" t="s">
+        <v>473</v>
+      </c>
+      <c r="I152" t="s">
+        <v>473</v>
+      </c>
+      <c r="J152" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
+      <c r="A153" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" t="s">
+      <c r="B153" t="s">
+        <v>473</v>
+      </c>
+      <c r="C153" t="s">
+        <v>473</v>
+      </c>
+      <c r="D153" t="s">
+        <v>473</v>
+      </c>
+      <c r="E153" t="s">
+        <v>473</v>
+      </c>
+      <c r="F153" t="s">
+        <v>473</v>
+      </c>
+      <c r="G153" t="s">
+        <v>475</v>
+      </c>
+      <c r="H153" t="s">
+        <v>473</v>
+      </c>
+      <c r="I153" t="s">
+        <v>473</v>
+      </c>
+      <c r="J153" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
+      <c r="A154" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" t="s">
+      <c r="B154" t="s">
+        <v>473</v>
+      </c>
+      <c r="C154" t="s">
+        <v>473</v>
+      </c>
+      <c r="D154" t="s">
+        <v>473</v>
+      </c>
+      <c r="E154" t="s">
+        <v>473</v>
+      </c>
+      <c r="F154" t="s">
+        <v>473</v>
+      </c>
+      <c r="G154" t="s">
+        <v>475</v>
+      </c>
+      <c r="H154" t="s">
+        <v>473</v>
+      </c>
+      <c r="I154" t="s">
+        <v>473</v>
+      </c>
+      <c r="J154" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
+      <c r="A155" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" t="s">
+      <c r="B155" t="s">
+        <v>473</v>
+      </c>
+      <c r="C155" t="s">
+        <v>473</v>
+      </c>
+      <c r="D155" t="s">
+        <v>473</v>
+      </c>
+      <c r="E155" t="s">
+        <v>473</v>
+      </c>
+      <c r="F155" t="s">
+        <v>473</v>
+      </c>
+      <c r="G155" t="s">
+        <v>475</v>
+      </c>
+      <c r="H155" t="s">
+        <v>473</v>
+      </c>
+      <c r="I155" t="s">
+        <v>473</v>
+      </c>
+      <c r="J155" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
+      <c r="A156" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" t="s">
+      <c r="B156" t="s">
+        <v>473</v>
+      </c>
+      <c r="C156" t="s">
+        <v>473</v>
+      </c>
+      <c r="D156" t="s">
+        <v>473</v>
+      </c>
+      <c r="E156" t="s">
+        <v>473</v>
+      </c>
+      <c r="F156" t="s">
+        <v>473</v>
+      </c>
+      <c r="G156" t="s">
+        <v>475</v>
+      </c>
+      <c r="H156" t="s">
+        <v>473</v>
+      </c>
+      <c r="I156" t="s">
+        <v>473</v>
+      </c>
+      <c r="J156" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
+      <c r="A157" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" t="s">
+      <c r="B157" t="s">
+        <v>473</v>
+      </c>
+      <c r="C157" t="s">
+        <v>473</v>
+      </c>
+      <c r="D157" t="s">
+        <v>473</v>
+      </c>
+      <c r="E157" t="s">
+        <v>473</v>
+      </c>
+      <c r="F157" t="s">
+        <v>473</v>
+      </c>
+      <c r="G157" t="s">
+        <v>475</v>
+      </c>
+      <c r="H157" t="s">
+        <v>473</v>
+      </c>
+      <c r="I157" t="s">
+        <v>473</v>
+      </c>
+      <c r="J157" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
+      <c r="A158" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" t="s">
+      <c r="B158" t="s">
+        <v>473</v>
+      </c>
+      <c r="C158" t="s">
+        <v>473</v>
+      </c>
+      <c r="D158" t="s">
+        <v>473</v>
+      </c>
+      <c r="E158" t="s">
+        <v>473</v>
+      </c>
+      <c r="F158" t="s">
+        <v>473</v>
+      </c>
+      <c r="G158" t="s">
+        <v>475</v>
+      </c>
+      <c r="H158" t="s">
+        <v>473</v>
+      </c>
+      <c r="I158" t="s">
+        <v>473</v>
+      </c>
+      <c r="J158" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
+      <c r="A159" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" t="s">
+      <c r="B159" t="s">
+        <v>473</v>
+      </c>
+      <c r="C159" t="s">
+        <v>473</v>
+      </c>
+      <c r="D159" t="s">
+        <v>473</v>
+      </c>
+      <c r="E159" t="s">
+        <v>473</v>
+      </c>
+      <c r="F159" t="s">
+        <v>473</v>
+      </c>
+      <c r="G159" t="s">
+        <v>475</v>
+      </c>
+      <c r="H159" t="s">
+        <v>473</v>
+      </c>
+      <c r="I159" t="s">
+        <v>473</v>
+      </c>
+      <c r="J159" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
+      <c r="A160" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" t="s">
+      <c r="B160" t="s">
+        <v>473</v>
+      </c>
+      <c r="C160" t="s">
+        <v>473</v>
+      </c>
+      <c r="D160" t="s">
+        <v>473</v>
+      </c>
+      <c r="E160" t="s">
+        <v>473</v>
+      </c>
+      <c r="F160" t="s">
+        <v>473</v>
+      </c>
+      <c r="G160" t="s">
+        <v>475</v>
+      </c>
+      <c r="H160" t="s">
+        <v>473</v>
+      </c>
+      <c r="I160" t="s">
+        <v>473</v>
+      </c>
+      <c r="J160" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
+      <c r="A161" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" t="s">
+      <c r="B161" t="s">
+        <v>473</v>
+      </c>
+      <c r="C161" t="s">
+        <v>473</v>
+      </c>
+      <c r="D161" t="s">
+        <v>473</v>
+      </c>
+      <c r="E161" t="s">
+        <v>473</v>
+      </c>
+      <c r="F161" t="s">
+        <v>473</v>
+      </c>
+      <c r="G161" t="s">
+        <v>475</v>
+      </c>
+      <c r="H161" t="s">
+        <v>473</v>
+      </c>
+      <c r="I161" t="s">
+        <v>473</v>
+      </c>
+      <c r="J161" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
+      <c r="A162" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" t="s">
+      <c r="B162" t="s">
+        <v>473</v>
+      </c>
+      <c r="C162" t="s">
+        <v>473</v>
+      </c>
+      <c r="D162" t="s">
+        <v>473</v>
+      </c>
+      <c r="E162" t="s">
+        <v>473</v>
+      </c>
+      <c r="F162" t="s">
+        <v>473</v>
+      </c>
+      <c r="G162" t="s">
+        <v>475</v>
+      </c>
+      <c r="H162" t="s">
+        <v>473</v>
+      </c>
+      <c r="I162" t="s">
+        <v>473</v>
+      </c>
+      <c r="J162" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
+      <c r="A163" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" t="s">
+      <c r="B163" t="s">
+        <v>473</v>
+      </c>
+      <c r="C163" t="s">
+        <v>473</v>
+      </c>
+      <c r="D163" t="s">
+        <v>473</v>
+      </c>
+      <c r="E163" t="s">
+        <v>473</v>
+      </c>
+      <c r="F163" t="s">
+        <v>473</v>
+      </c>
+      <c r="G163" t="s">
+        <v>475</v>
+      </c>
+      <c r="H163" t="s">
+        <v>473</v>
+      </c>
+      <c r="I163" t="s">
+        <v>473</v>
+      </c>
+      <c r="J163" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
+      <c r="A164" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" t="s">
+      <c r="B164" t="s">
+        <v>473</v>
+      </c>
+      <c r="C164" t="s">
+        <v>473</v>
+      </c>
+      <c r="D164" t="s">
+        <v>473</v>
+      </c>
+      <c r="E164" t="s">
+        <v>473</v>
+      </c>
+      <c r="F164" t="s">
+        <v>473</v>
+      </c>
+      <c r="G164" t="s">
+        <v>475</v>
+      </c>
+      <c r="H164" t="s">
+        <v>473</v>
+      </c>
+      <c r="I164" t="s">
+        <v>473</v>
+      </c>
+      <c r="J164" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
+      <c r="A165" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" t="s">
+      <c r="B165" t="s">
+        <v>473</v>
+      </c>
+      <c r="C165" t="s">
+        <v>473</v>
+      </c>
+      <c r="D165" t="s">
+        <v>473</v>
+      </c>
+      <c r="E165" t="s">
+        <v>473</v>
+      </c>
+      <c r="F165" t="s">
+        <v>473</v>
+      </c>
+      <c r="G165" t="s">
+        <v>475</v>
+      </c>
+      <c r="H165" t="s">
+        <v>473</v>
+      </c>
+      <c r="I165" t="s">
+        <v>473</v>
+      </c>
+      <c r="J165" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
+      <c r="A166" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" t="s">
+      <c r="B166" t="s">
+        <v>473</v>
+      </c>
+      <c r="C166" t="s">
+        <v>473</v>
+      </c>
+      <c r="D166" t="s">
+        <v>473</v>
+      </c>
+      <c r="E166" t="s">
+        <v>473</v>
+      </c>
+      <c r="F166" t="s">
+        <v>473</v>
+      </c>
+      <c r="G166" t="s">
+        <v>475</v>
+      </c>
+      <c r="H166" t="s">
+        <v>473</v>
+      </c>
+      <c r="I166" t="s">
+        <v>473</v>
+      </c>
+      <c r="J166" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
+      <c r="A167" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" t="s">
+      <c r="B167" t="s">
+        <v>473</v>
+      </c>
+      <c r="C167" t="s">
+        <v>473</v>
+      </c>
+      <c r="D167" t="s">
+        <v>473</v>
+      </c>
+      <c r="E167" t="s">
+        <v>473</v>
+      </c>
+      <c r="F167" t="s">
+        <v>473</v>
+      </c>
+      <c r="G167" t="s">
+        <v>475</v>
+      </c>
+      <c r="H167" t="s">
+        <v>473</v>
+      </c>
+      <c r="I167" t="s">
+        <v>473</v>
+      </c>
+      <c r="J167" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
+      <c r="A168" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" t="s">
+      <c r="B168" t="s">
+        <v>473</v>
+      </c>
+      <c r="C168" t="s">
+        <v>473</v>
+      </c>
+      <c r="D168" t="s">
+        <v>473</v>
+      </c>
+      <c r="E168" t="s">
+        <v>473</v>
+      </c>
+      <c r="F168" t="s">
+        <v>473</v>
+      </c>
+      <c r="G168" t="s">
+        <v>475</v>
+      </c>
+      <c r="H168" t="s">
+        <v>473</v>
+      </c>
+      <c r="I168" t="s">
+        <v>473</v>
+      </c>
+      <c r="J168" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
+      <c r="A169" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" t="s">
+      <c r="B169" t="s">
+        <v>473</v>
+      </c>
+      <c r="C169" t="s">
+        <v>473</v>
+      </c>
+      <c r="D169" t="s">
+        <v>473</v>
+      </c>
+      <c r="E169" t="s">
+        <v>473</v>
+      </c>
+      <c r="F169" t="s">
+        <v>473</v>
+      </c>
+      <c r="G169" t="s">
+        <v>475</v>
+      </c>
+      <c r="H169" t="s">
+        <v>473</v>
+      </c>
+      <c r="I169" t="s">
+        <v>473</v>
+      </c>
+      <c r="J169" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
+      <c r="A170" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" t="s">
+      <c r="B170" t="s">
+        <v>473</v>
+      </c>
+      <c r="C170" t="s">
+        <v>473</v>
+      </c>
+      <c r="D170" t="s">
+        <v>473</v>
+      </c>
+      <c r="E170" t="s">
+        <v>473</v>
+      </c>
+      <c r="F170" t="s">
+        <v>473</v>
+      </c>
+      <c r="G170" t="s">
+        <v>475</v>
+      </c>
+      <c r="H170" t="s">
+        <v>473</v>
+      </c>
+      <c r="I170" t="s">
+        <v>473</v>
+      </c>
+      <c r="J170" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
+      <c r="A171" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" t="s">
+      <c r="B171" t="s">
+        <v>473</v>
+      </c>
+      <c r="C171" t="s">
+        <v>473</v>
+      </c>
+      <c r="D171" t="s">
+        <v>473</v>
+      </c>
+      <c r="E171" t="s">
+        <v>473</v>
+      </c>
+      <c r="F171" t="s">
+        <v>473</v>
+      </c>
+      <c r="G171" t="s">
+        <v>475</v>
+      </c>
+      <c r="H171" t="s">
+        <v>473</v>
+      </c>
+      <c r="I171" t="s">
+        <v>473</v>
+      </c>
+      <c r="J171" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
+      <c r="A172" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" t="s">
+      <c r="B172" t="s">
+        <v>473</v>
+      </c>
+      <c r="C172" t="s">
+        <v>473</v>
+      </c>
+      <c r="D172" t="s">
+        <v>473</v>
+      </c>
+      <c r="E172" t="s">
+        <v>473</v>
+      </c>
+      <c r="F172" t="s">
+        <v>473</v>
+      </c>
+      <c r="G172" t="s">
+        <v>475</v>
+      </c>
+      <c r="H172" t="s">
+        <v>473</v>
+      </c>
+      <c r="I172" t="s">
+        <v>473</v>
+      </c>
+      <c r="J172" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
+      <c r="A173" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" t="s">
+      <c r="B173" t="s">
+        <v>473</v>
+      </c>
+      <c r="C173" t="s">
+        <v>473</v>
+      </c>
+      <c r="D173" t="s">
+        <v>473</v>
+      </c>
+      <c r="E173" t="s">
+        <v>473</v>
+      </c>
+      <c r="F173" t="s">
+        <v>473</v>
+      </c>
+      <c r="G173" t="s">
+        <v>475</v>
+      </c>
+      <c r="H173" t="s">
+        <v>473</v>
+      </c>
+      <c r="I173" t="s">
+        <v>473</v>
+      </c>
+      <c r="J173" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
+      <c r="A174" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" t="s">
+      <c r="B174" t="s">
+        <v>473</v>
+      </c>
+      <c r="C174" t="s">
+        <v>473</v>
+      </c>
+      <c r="D174" t="s">
+        <v>473</v>
+      </c>
+      <c r="E174" t="s">
+        <v>473</v>
+      </c>
+      <c r="F174" t="s">
+        <v>473</v>
+      </c>
+      <c r="G174" t="s">
+        <v>475</v>
+      </c>
+      <c r="H174" t="s">
+        <v>473</v>
+      </c>
+      <c r="I174" t="s">
+        <v>473</v>
+      </c>
+      <c r="J174" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
+      <c r="A175" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" t="s">
+      <c r="B175" t="s">
+        <v>473</v>
+      </c>
+      <c r="C175" t="s">
+        <v>473</v>
+      </c>
+      <c r="D175" t="s">
+        <v>473</v>
+      </c>
+      <c r="E175" t="s">
+        <v>473</v>
+      </c>
+      <c r="F175" t="s">
+        <v>473</v>
+      </c>
+      <c r="G175" t="s">
+        <v>475</v>
+      </c>
+      <c r="H175" t="s">
+        <v>473</v>
+      </c>
+      <c r="I175" t="s">
+        <v>473</v>
+      </c>
+      <c r="J175" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
+      <c r="A176" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" t="s">
+      <c r="B176" t="s">
+        <v>473</v>
+      </c>
+      <c r="C176" t="s">
+        <v>473</v>
+      </c>
+      <c r="D176" t="s">
+        <v>473</v>
+      </c>
+      <c r="E176" t="s">
+        <v>473</v>
+      </c>
+      <c r="F176" t="s">
+        <v>473</v>
+      </c>
+      <c r="G176" t="s">
+        <v>475</v>
+      </c>
+      <c r="H176" t="s">
+        <v>473</v>
+      </c>
+      <c r="I176" t="s">
+        <v>473</v>
+      </c>
+      <c r="J176" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
+      <c r="A177" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" t="s">
+      <c r="B177" t="s">
+        <v>473</v>
+      </c>
+      <c r="C177" t="s">
+        <v>473</v>
+      </c>
+      <c r="D177" t="s">
+        <v>473</v>
+      </c>
+      <c r="E177" t="s">
+        <v>473</v>
+      </c>
+      <c r="F177" t="s">
+        <v>473</v>
+      </c>
+      <c r="G177" t="s">
+        <v>475</v>
+      </c>
+      <c r="H177" t="s">
+        <v>473</v>
+      </c>
+      <c r="I177" t="s">
+        <v>473</v>
+      </c>
+      <c r="J177" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
+      <c r="A178" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="178" spans="1:1">
-      <c r="A178" t="s">
+      <c r="B178" t="s">
+        <v>473</v>
+      </c>
+      <c r="C178" t="s">
+        <v>473</v>
+      </c>
+      <c r="D178" t="s">
+        <v>473</v>
+      </c>
+      <c r="E178" t="s">
+        <v>473</v>
+      </c>
+      <c r="F178" t="s">
+        <v>473</v>
+      </c>
+      <c r="G178" t="s">
+        <v>475</v>
+      </c>
+      <c r="H178" t="s">
+        <v>473</v>
+      </c>
+      <c r="I178" t="s">
+        <v>473</v>
+      </c>
+      <c r="J178" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
+      <c r="A179" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="179" spans="1:1">
-      <c r="A179" t="s">
+      <c r="B179" t="s">
+        <v>473</v>
+      </c>
+      <c r="C179" t="s">
+        <v>473</v>
+      </c>
+      <c r="D179" t="s">
+        <v>473</v>
+      </c>
+      <c r="E179" t="s">
+        <v>473</v>
+      </c>
+      <c r="F179" t="s">
+        <v>473</v>
+      </c>
+      <c r="G179" t="s">
+        <v>475</v>
+      </c>
+      <c r="H179" t="s">
+        <v>473</v>
+      </c>
+      <c r="I179" t="s">
+        <v>473</v>
+      </c>
+      <c r="J179" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
+      <c r="A180" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="180" spans="1:1">
-      <c r="A180" t="s">
+      <c r="B180" t="s">
+        <v>473</v>
+      </c>
+      <c r="C180" t="s">
+        <v>473</v>
+      </c>
+      <c r="D180" t="s">
+        <v>473</v>
+      </c>
+      <c r="E180" t="s">
+        <v>473</v>
+      </c>
+      <c r="F180" t="s">
+        <v>473</v>
+      </c>
+      <c r="G180" t="s">
+        <v>475</v>
+      </c>
+      <c r="H180" t="s">
+        <v>473</v>
+      </c>
+      <c r="I180" t="s">
+        <v>473</v>
+      </c>
+      <c r="J180" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
+      <c r="A181" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" t="s">
+      <c r="B181" t="s">
+        <v>473</v>
+      </c>
+      <c r="C181" t="s">
+        <v>473</v>
+      </c>
+      <c r="D181" t="s">
+        <v>473</v>
+      </c>
+      <c r="E181" t="s">
+        <v>473</v>
+      </c>
+      <c r="F181" t="s">
+        <v>473</v>
+      </c>
+      <c r="G181" t="s">
+        <v>475</v>
+      </c>
+      <c r="H181" t="s">
+        <v>473</v>
+      </c>
+      <c r="I181" t="s">
+        <v>473</v>
+      </c>
+      <c r="J181" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
+      <c r="A182" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="182" spans="1:1">
-      <c r="A182" t="s">
+      <c r="B182" t="s">
+        <v>473</v>
+      </c>
+      <c r="C182" t="s">
+        <v>473</v>
+      </c>
+      <c r="D182" t="s">
+        <v>473</v>
+      </c>
+      <c r="E182" t="s">
+        <v>473</v>
+      </c>
+      <c r="F182" t="s">
+        <v>473</v>
+      </c>
+      <c r="G182" t="s">
+        <v>475</v>
+      </c>
+      <c r="H182" t="s">
+        <v>473</v>
+      </c>
+      <c r="I182" t="s">
+        <v>473</v>
+      </c>
+      <c r="J182" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
+      <c r="A183" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="183" spans="1:1">
-      <c r="A183" t="s">
+      <c r="B183" t="s">
+        <v>473</v>
+      </c>
+      <c r="C183" t="s">
+        <v>473</v>
+      </c>
+      <c r="D183" t="s">
+        <v>473</v>
+      </c>
+      <c r="E183" t="s">
+        <v>473</v>
+      </c>
+      <c r="F183" t="s">
+        <v>473</v>
+      </c>
+      <c r="G183" t="s">
+        <v>475</v>
+      </c>
+      <c r="H183" t="s">
+        <v>473</v>
+      </c>
+      <c r="I183" t="s">
+        <v>473</v>
+      </c>
+      <c r="J183" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
+      <c r="A184" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="184" spans="1:1">
-      <c r="A184" t="s">
+      <c r="B184" t="s">
+        <v>473</v>
+      </c>
+      <c r="C184" t="s">
+        <v>473</v>
+      </c>
+      <c r="D184" t="s">
+        <v>473</v>
+      </c>
+      <c r="E184" t="s">
+        <v>473</v>
+      </c>
+      <c r="F184" t="s">
+        <v>473</v>
+      </c>
+      <c r="G184" t="s">
+        <v>475</v>
+      </c>
+      <c r="H184" t="s">
+        <v>473</v>
+      </c>
+      <c r="I184" t="s">
+        <v>473</v>
+      </c>
+      <c r="J184" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
+      <c r="A185" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="185" spans="1:1">
-      <c r="A185" t="s">
+      <c r="B185" t="s">
+        <v>473</v>
+      </c>
+      <c r="C185" t="s">
+        <v>473</v>
+      </c>
+      <c r="D185" t="s">
+        <v>473</v>
+      </c>
+      <c r="E185" t="s">
+        <v>473</v>
+      </c>
+      <c r="F185" t="s">
+        <v>473</v>
+      </c>
+      <c r="G185" t="s">
+        <v>475</v>
+      </c>
+      <c r="H185" t="s">
+        <v>473</v>
+      </c>
+      <c r="I185" t="s">
+        <v>473</v>
+      </c>
+      <c r="J185" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
+      <c r="A186" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="186" spans="1:1">
-      <c r="A186" t="s">
+      <c r="B186" t="s">
+        <v>473</v>
+      </c>
+      <c r="C186" t="s">
+        <v>473</v>
+      </c>
+      <c r="D186" t="s">
+        <v>473</v>
+      </c>
+      <c r="E186" t="s">
+        <v>473</v>
+      </c>
+      <c r="F186" t="s">
+        <v>473</v>
+      </c>
+      <c r="G186" t="s">
+        <v>475</v>
+      </c>
+      <c r="H186" t="s">
+        <v>473</v>
+      </c>
+      <c r="I186" t="s">
+        <v>473</v>
+      </c>
+      <c r="J186" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
+      <c r="A187" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="187" spans="1:1">
-      <c r="A187" t="s">
+      <c r="B187" t="s">
+        <v>473</v>
+      </c>
+      <c r="C187" t="s">
+        <v>473</v>
+      </c>
+      <c r="D187" t="s">
+        <v>473</v>
+      </c>
+      <c r="E187" t="s">
+        <v>473</v>
+      </c>
+      <c r="F187" t="s">
+        <v>473</v>
+      </c>
+      <c r="G187" t="s">
+        <v>475</v>
+      </c>
+      <c r="H187" t="s">
+        <v>473</v>
+      </c>
+      <c r="I187" t="s">
+        <v>473</v>
+      </c>
+      <c r="J187" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
+      <c r="A188" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="188" spans="1:1">
-      <c r="A188" t="s">
+      <c r="B188" t="s">
+        <v>473</v>
+      </c>
+      <c r="C188" t="s">
+        <v>473</v>
+      </c>
+      <c r="D188" t="s">
+        <v>473</v>
+      </c>
+      <c r="E188" t="s">
+        <v>473</v>
+      </c>
+      <c r="F188" t="s">
+        <v>473</v>
+      </c>
+      <c r="G188" t="s">
+        <v>475</v>
+      </c>
+      <c r="H188" t="s">
+        <v>473</v>
+      </c>
+      <c r="I188" t="s">
+        <v>473</v>
+      </c>
+      <c r="J188" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
+      <c r="A189" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="189" spans="1:1">
-      <c r="A189" t="s">
+      <c r="B189" t="s">
+        <v>473</v>
+      </c>
+      <c r="C189" t="s">
+        <v>473</v>
+      </c>
+      <c r="D189" t="s">
+        <v>473</v>
+      </c>
+      <c r="E189" t="s">
+        <v>473</v>
+      </c>
+      <c r="F189" t="s">
+        <v>473</v>
+      </c>
+      <c r="G189" t="s">
+        <v>475</v>
+      </c>
+      <c r="H189" t="s">
+        <v>473</v>
+      </c>
+      <c r="I189" t="s">
+        <v>473</v>
+      </c>
+      <c r="J189" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
+      <c r="A190" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="190" spans="1:1">
-      <c r="A190" t="s">
+      <c r="B190" t="s">
+        <v>473</v>
+      </c>
+      <c r="C190" t="s">
+        <v>473</v>
+      </c>
+      <c r="D190" t="s">
+        <v>473</v>
+      </c>
+      <c r="E190" t="s">
+        <v>473</v>
+      </c>
+      <c r="F190" t="s">
+        <v>473</v>
+      </c>
+      <c r="G190" t="s">
+        <v>475</v>
+      </c>
+      <c r="H190" t="s">
+        <v>473</v>
+      </c>
+      <c r="I190" t="s">
+        <v>473</v>
+      </c>
+      <c r="J190" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
+      <c r="A191" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="191" spans="1:1">
-      <c r="A191" t="s">
+      <c r="B191" t="s">
+        <v>473</v>
+      </c>
+      <c r="C191" t="s">
+        <v>473</v>
+      </c>
+      <c r="D191" t="s">
+        <v>473</v>
+      </c>
+      <c r="E191" t="s">
+        <v>473</v>
+      </c>
+      <c r="F191" t="s">
+        <v>473</v>
+      </c>
+      <c r="G191" t="s">
+        <v>475</v>
+      </c>
+      <c r="H191" t="s">
+        <v>473</v>
+      </c>
+      <c r="I191" t="s">
+        <v>473</v>
+      </c>
+      <c r="J191" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
+      <c r="A192" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="192" spans="1:1">
-      <c r="A192" t="s">
+      <c r="B192" t="s">
+        <v>473</v>
+      </c>
+      <c r="C192" t="s">
+        <v>473</v>
+      </c>
+      <c r="D192" t="s">
+        <v>473</v>
+      </c>
+      <c r="E192" t="s">
+        <v>473</v>
+      </c>
+      <c r="F192" t="s">
+        <v>473</v>
+      </c>
+      <c r="G192" t="s">
+        <v>475</v>
+      </c>
+      <c r="H192" t="s">
+        <v>473</v>
+      </c>
+      <c r="I192" t="s">
+        <v>473</v>
+      </c>
+      <c r="J192" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
+      <c r="A193" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="193" spans="1:1">
-      <c r="A193" t="s">
+      <c r="B193" t="s">
+        <v>473</v>
+      </c>
+      <c r="C193" t="s">
+        <v>473</v>
+      </c>
+      <c r="D193" t="s">
+        <v>473</v>
+      </c>
+      <c r="E193" t="s">
+        <v>473</v>
+      </c>
+      <c r="F193" t="s">
+        <v>473</v>
+      </c>
+      <c r="G193" t="s">
+        <v>475</v>
+      </c>
+      <c r="H193" t="s">
+        <v>473</v>
+      </c>
+      <c r="I193" t="s">
+        <v>473</v>
+      </c>
+      <c r="J193" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
+      <c r="A194" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="194" spans="1:1">
-      <c r="A194" t="s">
+      <c r="B194" t="s">
+        <v>473</v>
+      </c>
+      <c r="C194" t="s">
+        <v>473</v>
+      </c>
+      <c r="D194" t="s">
+        <v>473</v>
+      </c>
+      <c r="E194" t="s">
+        <v>473</v>
+      </c>
+      <c r="F194" t="s">
+        <v>473</v>
+      </c>
+      <c r="G194" t="s">
+        <v>475</v>
+      </c>
+      <c r="H194" t="s">
+        <v>473</v>
+      </c>
+      <c r="I194" t="s">
+        <v>473</v>
+      </c>
+      <c r="J194" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
+      <c r="A195" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="195" spans="1:1">
-      <c r="A195" t="s">
+      <c r="B195" t="s">
+        <v>473</v>
+      </c>
+      <c r="C195" t="s">
+        <v>473</v>
+      </c>
+      <c r="D195" t="s">
+        <v>473</v>
+      </c>
+      <c r="E195" t="s">
+        <v>473</v>
+      </c>
+      <c r="F195" t="s">
+        <v>473</v>
+      </c>
+      <c r="G195" t="s">
+        <v>475</v>
+      </c>
+      <c r="H195" t="s">
+        <v>473</v>
+      </c>
+      <c r="I195" t="s">
+        <v>473</v>
+      </c>
+      <c r="J195" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
+      <c r="A196" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="196" spans="1:1">
-      <c r="A196" t="s">
+      <c r="B196" t="s">
+        <v>473</v>
+      </c>
+      <c r="C196" t="s">
+        <v>473</v>
+      </c>
+      <c r="D196" t="s">
+        <v>473</v>
+      </c>
+      <c r="E196" t="s">
+        <v>473</v>
+      </c>
+      <c r="F196" t="s">
+        <v>473</v>
+      </c>
+      <c r="G196" t="s">
+        <v>475</v>
+      </c>
+      <c r="H196" t="s">
+        <v>473</v>
+      </c>
+      <c r="I196" t="s">
+        <v>473</v>
+      </c>
+      <c r="J196" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
+      <c r="A197" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="197" spans="1:1">
-      <c r="A197" t="s">
+      <c r="B197" t="s">
+        <v>473</v>
+      </c>
+      <c r="C197" t="s">
+        <v>473</v>
+      </c>
+      <c r="D197" t="s">
+        <v>473</v>
+      </c>
+      <c r="E197" t="s">
+        <v>473</v>
+      </c>
+      <c r="F197" t="s">
+        <v>473</v>
+      </c>
+      <c r="G197" t="s">
+        <v>475</v>
+      </c>
+      <c r="H197" t="s">
+        <v>473</v>
+      </c>
+      <c r="I197" t="s">
+        <v>473</v>
+      </c>
+      <c r="J197" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
+      <c r="A198" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="198" spans="1:1">
-      <c r="A198" t="s">
+      <c r="B198" t="s">
+        <v>473</v>
+      </c>
+      <c r="C198" t="s">
+        <v>473</v>
+      </c>
+      <c r="D198" t="s">
+        <v>473</v>
+      </c>
+      <c r="E198" t="s">
+        <v>473</v>
+      </c>
+      <c r="F198" t="s">
+        <v>473</v>
+      </c>
+      <c r="G198" t="s">
+        <v>475</v>
+      </c>
+      <c r="H198" t="s">
+        <v>473</v>
+      </c>
+      <c r="I198" t="s">
+        <v>473</v>
+      </c>
+      <c r="J198" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
+      <c r="A199" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="199" spans="1:1">
-      <c r="A199" t="s">
+      <c r="B199" t="s">
+        <v>473</v>
+      </c>
+      <c r="C199" t="s">
+        <v>473</v>
+      </c>
+      <c r="D199" t="s">
+        <v>473</v>
+      </c>
+      <c r="E199" t="s">
+        <v>473</v>
+      </c>
+      <c r="F199" t="s">
+        <v>473</v>
+      </c>
+      <c r="G199" t="s">
+        <v>475</v>
+      </c>
+      <c r="H199" t="s">
+        <v>473</v>
+      </c>
+      <c r="I199" t="s">
+        <v>473</v>
+      </c>
+      <c r="J199" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
+      <c r="A200" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="200" spans="1:1">
-      <c r="A200" t="s">
+      <c r="B200" t="s">
+        <v>473</v>
+      </c>
+      <c r="C200" t="s">
+        <v>473</v>
+      </c>
+      <c r="D200" t="s">
+        <v>473</v>
+      </c>
+      <c r="E200" t="s">
+        <v>473</v>
+      </c>
+      <c r="F200" t="s">
+        <v>473</v>
+      </c>
+      <c r="G200" t="s">
+        <v>475</v>
+      </c>
+      <c r="H200" t="s">
+        <v>473</v>
+      </c>
+      <c r="I200" t="s">
+        <v>473</v>
+      </c>
+      <c r="J200" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
+      <c r="A201" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="201" spans="1:1">
-      <c r="A201" t="s">
+      <c r="B201" t="s">
+        <v>473</v>
+      </c>
+      <c r="C201" t="s">
+        <v>473</v>
+      </c>
+      <c r="D201" t="s">
+        <v>473</v>
+      </c>
+      <c r="E201" t="s">
+        <v>473</v>
+      </c>
+      <c r="F201" t="s">
+        <v>473</v>
+      </c>
+      <c r="G201" t="s">
+        <v>475</v>
+      </c>
+      <c r="H201" t="s">
+        <v>473</v>
+      </c>
+      <c r="I201" t="s">
+        <v>473</v>
+      </c>
+      <c r="J201" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
+      <c r="A202" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="202" spans="1:1">
-      <c r="A202" t="s">
+      <c r="B202" t="s">
+        <v>473</v>
+      </c>
+      <c r="C202" t="s">
+        <v>473</v>
+      </c>
+      <c r="D202" t="s">
+        <v>473</v>
+      </c>
+      <c r="E202" t="s">
+        <v>473</v>
+      </c>
+      <c r="F202" t="s">
+        <v>473</v>
+      </c>
+      <c r="G202" t="s">
+        <v>475</v>
+      </c>
+      <c r="H202" t="s">
+        <v>473</v>
+      </c>
+      <c r="I202" t="s">
+        <v>473</v>
+      </c>
+      <c r="J202" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
+      <c r="A203" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="203" spans="1:1">
-      <c r="A203" t="s">
+      <c r="B203" t="s">
+        <v>473</v>
+      </c>
+      <c r="C203" t="s">
+        <v>473</v>
+      </c>
+      <c r="D203" t="s">
+        <v>473</v>
+      </c>
+      <c r="E203" t="s">
+        <v>473</v>
+      </c>
+      <c r="F203" t="s">
+        <v>473</v>
+      </c>
+      <c r="G203" t="s">
+        <v>475</v>
+      </c>
+      <c r="H203" t="s">
+        <v>473</v>
+      </c>
+      <c r="I203" t="s">
+        <v>473</v>
+      </c>
+      <c r="J203" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
+      <c r="A204" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="204" spans="1:1">
-      <c r="A204" t="s">
+      <c r="B204" t="s">
+        <v>473</v>
+      </c>
+      <c r="C204" t="s">
+        <v>473</v>
+      </c>
+      <c r="D204" t="s">
+        <v>473</v>
+      </c>
+      <c r="E204" t="s">
+        <v>473</v>
+      </c>
+      <c r="F204" t="s">
+        <v>473</v>
+      </c>
+      <c r="G204" t="s">
+        <v>475</v>
+      </c>
+      <c r="H204" t="s">
+        <v>473</v>
+      </c>
+      <c r="I204" t="s">
+        <v>473</v>
+      </c>
+      <c r="J204" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
+      <c r="A205" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="205" spans="1:1">
-      <c r="A205" t="s">
+      <c r="B205" t="s">
+        <v>473</v>
+      </c>
+      <c r="C205" t="s">
+        <v>473</v>
+      </c>
+      <c r="D205" t="s">
+        <v>473</v>
+      </c>
+      <c r="E205" t="s">
+        <v>473</v>
+      </c>
+      <c r="F205" t="s">
+        <v>473</v>
+      </c>
+      <c r="G205" t="s">
+        <v>475</v>
+      </c>
+      <c r="H205" t="s">
+        <v>473</v>
+      </c>
+      <c r="I205" t="s">
+        <v>473</v>
+      </c>
+      <c r="J205" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
+      <c r="A206" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="206" spans="1:1">
-      <c r="A206" t="s">
+      <c r="B206" t="s">
+        <v>473</v>
+      </c>
+      <c r="C206" t="s">
+        <v>473</v>
+      </c>
+      <c r="D206" t="s">
+        <v>473</v>
+      </c>
+      <c r="E206" t="s">
+        <v>473</v>
+      </c>
+      <c r="F206" t="s">
+        <v>473</v>
+      </c>
+      <c r="G206" t="s">
+        <v>475</v>
+      </c>
+      <c r="H206" t="s">
+        <v>473</v>
+      </c>
+      <c r="I206" t="s">
+        <v>473</v>
+      </c>
+      <c r="J206" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
+      <c r="A207" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="207" spans="1:1">
-      <c r="A207" t="s">
+      <c r="B207" t="s">
+        <v>473</v>
+      </c>
+      <c r="C207" t="s">
+        <v>473</v>
+      </c>
+      <c r="D207" t="s">
+        <v>473</v>
+      </c>
+      <c r="E207" t="s">
+        <v>473</v>
+      </c>
+      <c r="F207" t="s">
+        <v>473</v>
+      </c>
+      <c r="G207" t="s">
+        <v>475</v>
+      </c>
+      <c r="H207" t="s">
+        <v>473</v>
+      </c>
+      <c r="I207" t="s">
+        <v>473</v>
+      </c>
+      <c r="J207" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10">
+      <c r="A208" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="208" spans="1:1">
-      <c r="A208" t="s">
+      <c r="B208" t="s">
+        <v>473</v>
+      </c>
+      <c r="C208" t="s">
+        <v>473</v>
+      </c>
+      <c r="D208" t="s">
+        <v>473</v>
+      </c>
+      <c r="E208" t="s">
+        <v>473</v>
+      </c>
+      <c r="F208" t="s">
+        <v>473</v>
+      </c>
+      <c r="G208" t="s">
+        <v>475</v>
+      </c>
+      <c r="H208" t="s">
+        <v>473</v>
+      </c>
+      <c r="I208" t="s">
+        <v>473</v>
+      </c>
+      <c r="J208" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10">
+      <c r="A209" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="209" spans="1:1">
-      <c r="A209" t="s">
+      <c r="B209" t="s">
+        <v>473</v>
+      </c>
+      <c r="C209" t="s">
+        <v>473</v>
+      </c>
+      <c r="D209" t="s">
+        <v>473</v>
+      </c>
+      <c r="E209" t="s">
+        <v>473</v>
+      </c>
+      <c r="F209" t="s">
+        <v>473</v>
+      </c>
+      <c r="G209" t="s">
+        <v>475</v>
+      </c>
+      <c r="H209" t="s">
+        <v>473</v>
+      </c>
+      <c r="I209" t="s">
+        <v>473</v>
+      </c>
+      <c r="J209" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
+      <c r="A210" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="210" spans="1:1">
-      <c r="A210" t="s">
+      <c r="B210" t="s">
+        <v>473</v>
+      </c>
+      <c r="C210" t="s">
+        <v>473</v>
+      </c>
+      <c r="D210" t="s">
+        <v>473</v>
+      </c>
+      <c r="E210" t="s">
+        <v>473</v>
+      </c>
+      <c r="F210" t="s">
+        <v>473</v>
+      </c>
+      <c r="G210" t="s">
+        <v>475</v>
+      </c>
+      <c r="H210" t="s">
+        <v>473</v>
+      </c>
+      <c r="I210" t="s">
+        <v>473</v>
+      </c>
+      <c r="J210" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10">
+      <c r="A211" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="211" spans="1:1">
-      <c r="A211" t="s">
+      <c r="B211" t="s">
+        <v>473</v>
+      </c>
+      <c r="C211" t="s">
+        <v>473</v>
+      </c>
+      <c r="D211" t="s">
+        <v>473</v>
+      </c>
+      <c r="E211" t="s">
+        <v>473</v>
+      </c>
+      <c r="F211" t="s">
+        <v>473</v>
+      </c>
+      <c r="G211" t="s">
+        <v>475</v>
+      </c>
+      <c r="H211" t="s">
+        <v>473</v>
+      </c>
+      <c r="I211" t="s">
+        <v>473</v>
+      </c>
+      <c r="J211" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10">
+      <c r="A212" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="212" spans="1:1">
-      <c r="A212" t="s">
+      <c r="B212" t="s">
+        <v>473</v>
+      </c>
+      <c r="C212" t="s">
+        <v>473</v>
+      </c>
+      <c r="D212" t="s">
+        <v>473</v>
+      </c>
+      <c r="E212" t="s">
+        <v>473</v>
+      </c>
+      <c r="F212" t="s">
+        <v>473</v>
+      </c>
+      <c r="G212" t="s">
+        <v>475</v>
+      </c>
+      <c r="H212" t="s">
+        <v>473</v>
+      </c>
+      <c r="I212" t="s">
+        <v>473</v>
+      </c>
+      <c r="J212" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10">
+      <c r="A213" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="213" spans="1:1">
-      <c r="A213" t="s">
+      <c r="B213" t="s">
+        <v>473</v>
+      </c>
+      <c r="C213" t="s">
+        <v>473</v>
+      </c>
+      <c r="D213" t="s">
+        <v>473</v>
+      </c>
+      <c r="E213" t="s">
+        <v>473</v>
+      </c>
+      <c r="F213" t="s">
+        <v>473</v>
+      </c>
+      <c r="G213" t="s">
+        <v>475</v>
+      </c>
+      <c r="H213" t="s">
+        <v>473</v>
+      </c>
+      <c r="I213" t="s">
+        <v>473</v>
+      </c>
+      <c r="J213" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10">
+      <c r="A214" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="214" spans="1:1">
-      <c r="A214" t="s">
+      <c r="B214" t="s">
+        <v>473</v>
+      </c>
+      <c r="C214" t="s">
+        <v>473</v>
+      </c>
+      <c r="D214" t="s">
+        <v>473</v>
+      </c>
+      <c r="E214" t="s">
+        <v>473</v>
+      </c>
+      <c r="F214" t="s">
+        <v>473</v>
+      </c>
+      <c r="G214" t="s">
+        <v>475</v>
+      </c>
+      <c r="H214" t="s">
+        <v>473</v>
+      </c>
+      <c r="I214" t="s">
+        <v>473</v>
+      </c>
+      <c r="J214" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10">
+      <c r="A215" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="215" spans="1:1">
-      <c r="A215" t="s">
+      <c r="B215" t="s">
+        <v>473</v>
+      </c>
+      <c r="C215" t="s">
+        <v>473</v>
+      </c>
+      <c r="D215" t="s">
+        <v>473</v>
+      </c>
+      <c r="E215" t="s">
+        <v>473</v>
+      </c>
+      <c r="F215" t="s">
+        <v>473</v>
+      </c>
+      <c r="G215" t="s">
+        <v>475</v>
+      </c>
+      <c r="H215" t="s">
+        <v>473</v>
+      </c>
+      <c r="I215" t="s">
+        <v>473</v>
+      </c>
+      <c r="J215" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10">
+      <c r="A216" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="216" spans="1:1">
-      <c r="A216" t="s">
+      <c r="B216" t="s">
+        <v>473</v>
+      </c>
+      <c r="C216" t="s">
+        <v>473</v>
+      </c>
+      <c r="D216" t="s">
+        <v>473</v>
+      </c>
+      <c r="E216" t="s">
+        <v>473</v>
+      </c>
+      <c r="F216" t="s">
+        <v>473</v>
+      </c>
+      <c r="G216" t="s">
+        <v>475</v>
+      </c>
+      <c r="H216" t="s">
+        <v>473</v>
+      </c>
+      <c r="I216" t="s">
+        <v>473</v>
+      </c>
+      <c r="J216" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10">
+      <c r="A217" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="217" spans="1:1">
-      <c r="A217" t="s">
+      <c r="B217" t="s">
+        <v>473</v>
+      </c>
+      <c r="C217" t="s">
+        <v>473</v>
+      </c>
+      <c r="D217" t="s">
+        <v>473</v>
+      </c>
+      <c r="E217" t="s">
+        <v>473</v>
+      </c>
+      <c r="F217" t="s">
+        <v>473</v>
+      </c>
+      <c r="G217" t="s">
+        <v>475</v>
+      </c>
+      <c r="H217" t="s">
+        <v>473</v>
+      </c>
+      <c r="I217" t="s">
+        <v>473</v>
+      </c>
+      <c r="J217" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10">
+      <c r="A218" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="218" spans="1:1">
-      <c r="A218" t="s">
+      <c r="B218" t="s">
+        <v>473</v>
+      </c>
+      <c r="C218" t="s">
+        <v>473</v>
+      </c>
+      <c r="D218" t="s">
+        <v>473</v>
+      </c>
+      <c r="E218" t="s">
+        <v>473</v>
+      </c>
+      <c r="F218" t="s">
+        <v>473</v>
+      </c>
+      <c r="G218" t="s">
+        <v>475</v>
+      </c>
+      <c r="H218" t="s">
+        <v>473</v>
+      </c>
+      <c r="I218" t="s">
+        <v>473</v>
+      </c>
+      <c r="J218" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10">
+      <c r="A219" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="219" spans="1:1">
-      <c r="A219" t="s">
+      <c r="B219" t="s">
+        <v>473</v>
+      </c>
+      <c r="C219" t="s">
+        <v>473</v>
+      </c>
+      <c r="D219" t="s">
+        <v>473</v>
+      </c>
+      <c r="E219" t="s">
+        <v>473</v>
+      </c>
+      <c r="F219" t="s">
+        <v>473</v>
+      </c>
+      <c r="G219" t="s">
+        <v>475</v>
+      </c>
+      <c r="H219" t="s">
+        <v>473</v>
+      </c>
+      <c r="I219" t="s">
+        <v>473</v>
+      </c>
+      <c r="J219" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10">
+      <c r="A220" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="220" spans="1:1">
-      <c r="A220" t="s">
+      <c r="B220" t="s">
+        <v>473</v>
+      </c>
+      <c r="C220" t="s">
+        <v>473</v>
+      </c>
+      <c r="D220" t="s">
+        <v>473</v>
+      </c>
+      <c r="E220" t="s">
+        <v>473</v>
+      </c>
+      <c r="F220" t="s">
+        <v>473</v>
+      </c>
+      <c r="G220" t="s">
+        <v>475</v>
+      </c>
+      <c r="H220" t="s">
+        <v>473</v>
+      </c>
+      <c r="I220" t="s">
+        <v>473</v>
+      </c>
+      <c r="J220" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10">
+      <c r="A221" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="221" spans="1:1">
-      <c r="A221" t="s">
+      <c r="B221" t="s">
+        <v>473</v>
+      </c>
+      <c r="C221" t="s">
+        <v>473</v>
+      </c>
+      <c r="D221" t="s">
+        <v>473</v>
+      </c>
+      <c r="E221" t="s">
+        <v>473</v>
+      </c>
+      <c r="F221" t="s">
+        <v>473</v>
+      </c>
+      <c r="G221" t="s">
+        <v>475</v>
+      </c>
+      <c r="H221" t="s">
+        <v>473</v>
+      </c>
+      <c r="I221" t="s">
+        <v>473</v>
+      </c>
+      <c r="J221" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10">
+      <c r="A222" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="222" spans="1:1">
-      <c r="A222" t="s">
+      <c r="B222" t="s">
+        <v>473</v>
+      </c>
+      <c r="C222" t="s">
+        <v>473</v>
+      </c>
+      <c r="D222" t="s">
+        <v>473</v>
+      </c>
+      <c r="E222" t="s">
+        <v>473</v>
+      </c>
+      <c r="F222" t="s">
+        <v>473</v>
+      </c>
+      <c r="G222" t="s">
+        <v>475</v>
+      </c>
+      <c r="H222" t="s">
+        <v>473</v>
+      </c>
+      <c r="I222" t="s">
+        <v>473</v>
+      </c>
+      <c r="J222" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10">
+      <c r="A223" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="223" spans="1:1">
-      <c r="A223" t="s">
+      <c r="B223" t="s">
+        <v>473</v>
+      </c>
+      <c r="C223" t="s">
+        <v>473</v>
+      </c>
+      <c r="D223" t="s">
+        <v>473</v>
+      </c>
+      <c r="E223" t="s">
+        <v>473</v>
+      </c>
+      <c r="F223" t="s">
+        <v>473</v>
+      </c>
+      <c r="G223" t="s">
+        <v>475</v>
+      </c>
+      <c r="H223" t="s">
+        <v>473</v>
+      </c>
+      <c r="I223" t="s">
+        <v>473</v>
+      </c>
+      <c r="J223" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10">
+      <c r="A224" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="224" spans="1:1">
-      <c r="A224" t="s">
+      <c r="B224" t="s">
+        <v>473</v>
+      </c>
+      <c r="C224" t="s">
+        <v>473</v>
+      </c>
+      <c r="D224" t="s">
+        <v>473</v>
+      </c>
+      <c r="E224" t="s">
+        <v>473</v>
+      </c>
+      <c r="F224" t="s">
+        <v>473</v>
+      </c>
+      <c r="G224" t="s">
+        <v>475</v>
+      </c>
+      <c r="H224" t="s">
+        <v>473</v>
+      </c>
+      <c r="I224" t="s">
+        <v>473</v>
+      </c>
+      <c r="J224" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10">
+      <c r="A225" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="225" spans="1:1">
-      <c r="A225" t="s">
+      <c r="B225" t="s">
+        <v>473</v>
+      </c>
+      <c r="C225" t="s">
+        <v>473</v>
+      </c>
+      <c r="D225" t="s">
+        <v>473</v>
+      </c>
+      <c r="E225" t="s">
+        <v>473</v>
+      </c>
+      <c r="F225" t="s">
+        <v>473</v>
+      </c>
+      <c r="G225" t="s">
+        <v>475</v>
+      </c>
+      <c r="H225" t="s">
+        <v>473</v>
+      </c>
+      <c r="I225" t="s">
+        <v>473</v>
+      </c>
+      <c r="J225" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10">
+      <c r="A226" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="226" spans="1:1">
-      <c r="A226" t="s">
+      <c r="B226" t="s">
+        <v>473</v>
+      </c>
+      <c r="C226" t="s">
+        <v>473</v>
+      </c>
+      <c r="D226" t="s">
+        <v>473</v>
+      </c>
+      <c r="E226" t="s">
+        <v>473</v>
+      </c>
+      <c r="F226" t="s">
+        <v>473</v>
+      </c>
+      <c r="G226" t="s">
+        <v>475</v>
+      </c>
+      <c r="H226" t="s">
+        <v>473</v>
+      </c>
+      <c r="I226" t="s">
+        <v>473</v>
+      </c>
+      <c r="J226" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10">
+      <c r="A227" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="227" spans="1:1">
-      <c r="A227" t="s">
+      <c r="B227" t="s">
+        <v>473</v>
+      </c>
+      <c r="C227" t="s">
+        <v>473</v>
+      </c>
+      <c r="D227" t="s">
+        <v>473</v>
+      </c>
+      <c r="E227" t="s">
+        <v>473</v>
+      </c>
+      <c r="F227" t="s">
+        <v>473</v>
+      </c>
+      <c r="G227" t="s">
+        <v>475</v>
+      </c>
+      <c r="H227" t="s">
+        <v>473</v>
+      </c>
+      <c r="I227" t="s">
+        <v>473</v>
+      </c>
+      <c r="J227" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10">
+      <c r="A228" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="228" spans="1:1">
-      <c r="A228" t="s">
+      <c r="B228" t="s">
+        <v>473</v>
+      </c>
+      <c r="C228" t="s">
+        <v>473</v>
+      </c>
+      <c r="D228" t="s">
+        <v>473</v>
+      </c>
+      <c r="E228" t="s">
+        <v>473</v>
+      </c>
+      <c r="F228" t="s">
+        <v>473</v>
+      </c>
+      <c r="G228" t="s">
+        <v>475</v>
+      </c>
+      <c r="H228" t="s">
+        <v>473</v>
+      </c>
+      <c r="I228" t="s">
+        <v>473</v>
+      </c>
+      <c r="J228" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10">
+      <c r="A229" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="229" spans="1:1">
-      <c r="A229" t="s">
+      <c r="B229" t="s">
+        <v>473</v>
+      </c>
+      <c r="C229" t="s">
+        <v>473</v>
+      </c>
+      <c r="D229" t="s">
+        <v>473</v>
+      </c>
+      <c r="E229" t="s">
+        <v>473</v>
+      </c>
+      <c r="F229" t="s">
+        <v>473</v>
+      </c>
+      <c r="G229" t="s">
+        <v>475</v>
+      </c>
+      <c r="H229" t="s">
+        <v>473</v>
+      </c>
+      <c r="I229" t="s">
+        <v>473</v>
+      </c>
+      <c r="J229" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10">
+      <c r="A230" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="230" spans="1:1">
-      <c r="A230" t="s">
+      <c r="B230" t="s">
+        <v>473</v>
+      </c>
+      <c r="C230" t="s">
+        <v>473</v>
+      </c>
+      <c r="D230" t="s">
+        <v>473</v>
+      </c>
+      <c r="E230" t="s">
+        <v>473</v>
+      </c>
+      <c r="F230" t="s">
+        <v>473</v>
+      </c>
+      <c r="G230" t="s">
+        <v>475</v>
+      </c>
+      <c r="H230" t="s">
+        <v>473</v>
+      </c>
+      <c r="I230" t="s">
+        <v>473</v>
+      </c>
+      <c r="J230" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10">
+      <c r="A231" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="231" spans="1:1">
-      <c r="A231" t="s">
+      <c r="B231" t="s">
+        <v>473</v>
+      </c>
+      <c r="C231" t="s">
+        <v>473</v>
+      </c>
+      <c r="D231" t="s">
+        <v>473</v>
+      </c>
+      <c r="E231" t="s">
+        <v>473</v>
+      </c>
+      <c r="F231" t="s">
+        <v>473</v>
+      </c>
+      <c r="G231" t="s">
+        <v>475</v>
+      </c>
+      <c r="H231" t="s">
+        <v>473</v>
+      </c>
+      <c r="I231" t="s">
+        <v>473</v>
+      </c>
+      <c r="J231" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10">
+      <c r="A232" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="232" spans="1:1">
-      <c r="A232" t="s">
+      <c r="B232" t="s">
+        <v>473</v>
+      </c>
+      <c r="C232" t="s">
+        <v>473</v>
+      </c>
+      <c r="D232" t="s">
+        <v>473</v>
+      </c>
+      <c r="E232" t="s">
+        <v>473</v>
+      </c>
+      <c r="F232" t="s">
+        <v>473</v>
+      </c>
+      <c r="G232" t="s">
+        <v>475</v>
+      </c>
+      <c r="H232" t="s">
+        <v>473</v>
+      </c>
+      <c r="I232" t="s">
+        <v>473</v>
+      </c>
+      <c r="J232" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10">
+      <c r="A233" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="233" spans="1:1">
-      <c r="A233" t="s">
+      <c r="B233" t="s">
+        <v>473</v>
+      </c>
+      <c r="C233" t="s">
+        <v>473</v>
+      </c>
+      <c r="D233" t="s">
+        <v>473</v>
+      </c>
+      <c r="E233" t="s">
+        <v>473</v>
+      </c>
+      <c r="F233" t="s">
+        <v>473</v>
+      </c>
+      <c r="G233" t="s">
+        <v>475</v>
+      </c>
+      <c r="H233" t="s">
+        <v>473</v>
+      </c>
+      <c r="I233" t="s">
+        <v>473</v>
+      </c>
+      <c r="J233" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10">
+      <c r="A234" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="234" spans="1:1">
-      <c r="A234" t="s">
+      <c r="B234" t="s">
+        <v>473</v>
+      </c>
+      <c r="C234" t="s">
+        <v>473</v>
+      </c>
+      <c r="D234" t="s">
+        <v>473</v>
+      </c>
+      <c r="E234" t="s">
+        <v>473</v>
+      </c>
+      <c r="F234" t="s">
+        <v>473</v>
+      </c>
+      <c r="G234" t="s">
+        <v>475</v>
+      </c>
+      <c r="H234" t="s">
+        <v>473</v>
+      </c>
+      <c r="I234" t="s">
+        <v>473</v>
+      </c>
+      <c r="J234" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10">
+      <c r="A235" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="235" spans="1:1">
-      <c r="A235" t="s">
+      <c r="B235" t="s">
+        <v>473</v>
+      </c>
+      <c r="C235" t="s">
+        <v>473</v>
+      </c>
+      <c r="D235" t="s">
+        <v>473</v>
+      </c>
+      <c r="E235" t="s">
+        <v>473</v>
+      </c>
+      <c r="F235" t="s">
+        <v>473</v>
+      </c>
+      <c r="G235" t="s">
+        <v>475</v>
+      </c>
+      <c r="H235" t="s">
+        <v>473</v>
+      </c>
+      <c r="I235" t="s">
+        <v>473</v>
+      </c>
+      <c r="J235" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10">
+      <c r="A236" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="236" spans="1:1">
-      <c r="A236" t="s">
+      <c r="B236" t="s">
+        <v>473</v>
+      </c>
+      <c r="C236" t="s">
+        <v>473</v>
+      </c>
+      <c r="D236" t="s">
+        <v>473</v>
+      </c>
+      <c r="E236" t="s">
+        <v>473</v>
+      </c>
+      <c r="F236" t="s">
+        <v>473</v>
+      </c>
+      <c r="G236" t="s">
+        <v>475</v>
+      </c>
+      <c r="H236" t="s">
+        <v>473</v>
+      </c>
+      <c r="I236" t="s">
+        <v>473</v>
+      </c>
+      <c r="J236" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10">
+      <c r="A237" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="237" spans="1:1">
-      <c r="A237" t="s">
+      <c r="B237" t="s">
+        <v>473</v>
+      </c>
+      <c r="C237" t="s">
+        <v>473</v>
+      </c>
+      <c r="D237" t="s">
+        <v>473</v>
+      </c>
+      <c r="E237" t="s">
+        <v>473</v>
+      </c>
+      <c r="F237" t="s">
+        <v>473</v>
+      </c>
+      <c r="G237" t="s">
+        <v>475</v>
+      </c>
+      <c r="H237" t="s">
+        <v>473</v>
+      </c>
+      <c r="I237" t="s">
+        <v>473</v>
+      </c>
+      <c r="J237" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10">
+      <c r="A238" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="238" spans="1:1">
-      <c r="A238" t="s">
+      <c r="B238" t="s">
+        <v>473</v>
+      </c>
+      <c r="C238" t="s">
+        <v>473</v>
+      </c>
+      <c r="D238" t="s">
+        <v>473</v>
+      </c>
+      <c r="E238" t="s">
+        <v>473</v>
+      </c>
+      <c r="F238" t="s">
+        <v>473</v>
+      </c>
+      <c r="G238" t="s">
+        <v>475</v>
+      </c>
+      <c r="H238" t="s">
+        <v>473</v>
+      </c>
+      <c r="I238" t="s">
+        <v>473</v>
+      </c>
+      <c r="J238" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10">
+      <c r="A239" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="239" spans="1:1">
-      <c r="A239" t="s">
+      <c r="B239" t="s">
+        <v>473</v>
+      </c>
+      <c r="C239" t="s">
+        <v>473</v>
+      </c>
+      <c r="D239" t="s">
+        <v>473</v>
+      </c>
+      <c r="E239" t="s">
+        <v>473</v>
+      </c>
+      <c r="F239" t="s">
+        <v>473</v>
+      </c>
+      <c r="G239" t="s">
+        <v>475</v>
+      </c>
+      <c r="H239" t="s">
+        <v>473</v>
+      </c>
+      <c r="I239" t="s">
+        <v>473</v>
+      </c>
+      <c r="J239" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10">
+      <c r="A240" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="240" spans="1:1">
-      <c r="A240" t="s">
+      <c r="B240" t="s">
+        <v>473</v>
+      </c>
+      <c r="C240" t="s">
+        <v>473</v>
+      </c>
+      <c r="D240" t="s">
+        <v>473</v>
+      </c>
+      <c r="E240" t="s">
+        <v>473</v>
+      </c>
+      <c r="F240" t="s">
+        <v>473</v>
+      </c>
+      <c r="G240" t="s">
+        <v>475</v>
+      </c>
+      <c r="H240" t="s">
+        <v>473</v>
+      </c>
+      <c r="I240" t="s">
+        <v>473</v>
+      </c>
+      <c r="J240" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10">
+      <c r="A241" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="241" spans="1:1">
-      <c r="A241" t="s">
+      <c r="B241" t="s">
+        <v>473</v>
+      </c>
+      <c r="C241" t="s">
+        <v>473</v>
+      </c>
+      <c r="D241" t="s">
+        <v>473</v>
+      </c>
+      <c r="E241" t="s">
+        <v>473</v>
+      </c>
+      <c r="F241" t="s">
+        <v>473</v>
+      </c>
+      <c r="G241" t="s">
+        <v>475</v>
+      </c>
+      <c r="H241" t="s">
+        <v>473</v>
+      </c>
+      <c r="I241" t="s">
+        <v>473</v>
+      </c>
+      <c r="J241" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10">
+      <c r="A242" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="242" spans="1:1">
-      <c r="A242" t="s">
+      <c r="B242" t="s">
+        <v>473</v>
+      </c>
+      <c r="C242" t="s">
+        <v>473</v>
+      </c>
+      <c r="D242" t="s">
+        <v>473</v>
+      </c>
+      <c r="E242" t="s">
+        <v>473</v>
+      </c>
+      <c r="F242" t="s">
+        <v>473</v>
+      </c>
+      <c r="G242" t="s">
+        <v>475</v>
+      </c>
+      <c r="H242" t="s">
+        <v>473</v>
+      </c>
+      <c r="I242" t="s">
+        <v>473</v>
+      </c>
+      <c r="J242" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10">
+      <c r="A243" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="243" spans="1:1">
-      <c r="A243" t="s">
+      <c r="B243" t="s">
+        <v>473</v>
+      </c>
+      <c r="C243" t="s">
+        <v>473</v>
+      </c>
+      <c r="D243" t="s">
+        <v>473</v>
+      </c>
+      <c r="E243" t="s">
+        <v>473</v>
+      </c>
+      <c r="F243" t="s">
+        <v>473</v>
+      </c>
+      <c r="G243" t="s">
+        <v>475</v>
+      </c>
+      <c r="H243" t="s">
+        <v>473</v>
+      </c>
+      <c r="I243" t="s">
+        <v>473</v>
+      </c>
+      <c r="J243" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10">
+      <c r="A244" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="244" spans="1:1">
-      <c r="A244" t="s">
+      <c r="B244" t="s">
+        <v>473</v>
+      </c>
+      <c r="C244" t="s">
+        <v>473</v>
+      </c>
+      <c r="D244" t="s">
+        <v>473</v>
+      </c>
+      <c r="E244" t="s">
+        <v>473</v>
+      </c>
+      <c r="F244" t="s">
+        <v>473</v>
+      </c>
+      <c r="G244" t="s">
+        <v>475</v>
+      </c>
+      <c r="H244" t="s">
+        <v>473</v>
+      </c>
+      <c r="I244" t="s">
+        <v>473</v>
+      </c>
+      <c r="J244" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10">
+      <c r="A245" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="245" spans="1:1">
-      <c r="A245" t="s">
+      <c r="B245" t="s">
+        <v>473</v>
+      </c>
+      <c r="C245" t="s">
+        <v>473</v>
+      </c>
+      <c r="D245" t="s">
+        <v>473</v>
+      </c>
+      <c r="E245" t="s">
+        <v>473</v>
+      </c>
+      <c r="F245" t="s">
+        <v>473</v>
+      </c>
+      <c r="G245" t="s">
+        <v>475</v>
+      </c>
+      <c r="H245" t="s">
+        <v>473</v>
+      </c>
+      <c r="I245" t="s">
+        <v>473</v>
+      </c>
+      <c r="J245" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10">
+      <c r="A246" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="246" spans="1:1">
-      <c r="A246" t="s">
+      <c r="B246" t="s">
+        <v>473</v>
+      </c>
+      <c r="C246" t="s">
+        <v>473</v>
+      </c>
+      <c r="D246" t="s">
+        <v>473</v>
+      </c>
+      <c r="E246" t="s">
+        <v>473</v>
+      </c>
+      <c r="F246" t="s">
+        <v>473</v>
+      </c>
+      <c r="G246" t="s">
+        <v>475</v>
+      </c>
+      <c r="H246" t="s">
+        <v>473</v>
+      </c>
+      <c r="I246" t="s">
+        <v>473</v>
+      </c>
+      <c r="J246" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10">
+      <c r="A247" t="s">
         <v>469</v>
+      </c>
+      <c r="B247" t="s">
+        <v>473</v>
+      </c>
+      <c r="C247" t="s">
+        <v>473</v>
+      </c>
+      <c r="D247" t="s">
+        <v>473</v>
+      </c>
+      <c r="E247" t="s">
+        <v>473</v>
+      </c>
+      <c r="F247" t="s">
+        <v>473</v>
+      </c>
+      <c r="G247" t="s">
+        <v>475</v>
+      </c>
+      <c r="H247" t="s">
+        <v>473</v>
+      </c>
+      <c r="I247" t="s">
+        <v>473</v>
+      </c>
+      <c r="J247" t="s">
+        <v>473</v>
       </c>
     </row>
   </sheetData>

--- a/vfBattleTechMod-ProcGenStores-Test/res/test-xlrp-store-content.xlsx
+++ b/vfBattleTechMod-ProcGenStores-Test/res/test-xlrp-store-content.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Games\Steam\steamapps\common\BATTLETECH\Repository\vfBattleTechMod-Core\vfBattleTechMod-ProcGenStores-Test\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685AF893-90BE-43A0-BDED-650CA6E6B036}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FB639C-57C0-43C9-92EC-32BA21B23794}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="1830" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="1830" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4857" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5249" uniqueCount="610">
   <si>
     <t>ActuatorTemplate</t>
   </si>
@@ -1851,7 +1851,10 @@
     <t>Restricted PlanetTags (Any of)</t>
   </si>
   <si>
-    <t>Very Uncommon</t>
+    <t>planet_test_MVP</t>
+  </si>
+  <si>
+    <t>planet_test_vengefire|planet_test_zappo</t>
   </si>
 </sst>
 </file>
@@ -2563,7 +2566,7 @@
   <dimension ref="A1:J135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2628,6 +2631,12 @@
       <c r="G2" s="2" t="s">
         <v>473</v>
       </c>
+      <c r="I2" t="s">
+        <v>473</v>
+      </c>
+      <c r="J2" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
@@ -2651,6 +2660,12 @@
       <c r="G3" s="2" t="s">
         <v>473</v>
       </c>
+      <c r="I3" t="s">
+        <v>473</v>
+      </c>
+      <c r="J3" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
@@ -2674,6 +2689,12 @@
       <c r="G4" s="2" t="s">
         <v>476</v>
       </c>
+      <c r="I4" t="s">
+        <v>473</v>
+      </c>
+      <c r="J4" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
@@ -2697,6 +2718,12 @@
       <c r="G5" s="2" t="s">
         <v>476</v>
       </c>
+      <c r="I5" t="s">
+        <v>473</v>
+      </c>
+      <c r="J5" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
@@ -2720,6 +2747,12 @@
       <c r="G6" s="2" t="s">
         <v>476</v>
       </c>
+      <c r="I6" t="s">
+        <v>473</v>
+      </c>
+      <c r="J6" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
@@ -2743,6 +2776,12 @@
       <c r="G7" s="2" t="s">
         <v>476</v>
       </c>
+      <c r="I7" t="s">
+        <v>473</v>
+      </c>
+      <c r="J7" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
@@ -2766,6 +2805,12 @@
       <c r="G8" s="2" t="s">
         <v>476</v>
       </c>
+      <c r="I8" t="s">
+        <v>473</v>
+      </c>
+      <c r="J8" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
@@ -2789,6 +2834,12 @@
       <c r="G9" s="2" t="s">
         <v>476</v>
       </c>
+      <c r="I9" t="s">
+        <v>473</v>
+      </c>
+      <c r="J9" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
@@ -2812,6 +2863,12 @@
       <c r="G10" s="2" t="s">
         <v>476</v>
       </c>
+      <c r="I10" t="s">
+        <v>473</v>
+      </c>
+      <c r="J10" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
@@ -2835,6 +2892,12 @@
       <c r="G11" s="2" t="s">
         <v>473</v>
       </c>
+      <c r="I11" t="s">
+        <v>473</v>
+      </c>
+      <c r="J11" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
@@ -2858,6 +2921,12 @@
       <c r="G12" s="2" t="s">
         <v>482</v>
       </c>
+      <c r="I12" t="s">
+        <v>473</v>
+      </c>
+      <c r="J12" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
@@ -2881,6 +2950,12 @@
       <c r="G13" s="2" t="s">
         <v>473</v>
       </c>
+      <c r="I13" t="s">
+        <v>473</v>
+      </c>
+      <c r="J13" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
@@ -2904,6 +2979,12 @@
       <c r="G14" s="2" t="s">
         <v>475</v>
       </c>
+      <c r="I14" t="s">
+        <v>473</v>
+      </c>
+      <c r="J14" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
@@ -2927,6 +3008,12 @@
       <c r="G15" s="2" t="s">
         <v>473</v>
       </c>
+      <c r="I15" t="s">
+        <v>473</v>
+      </c>
+      <c r="J15" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
@@ -2950,8 +3037,14 @@
       <c r="G16" s="2" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16" t="s">
+        <v>473</v>
+      </c>
+      <c r="J16" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2973,8 +3066,14 @@
       <c r="G17" s="2" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17" t="s">
+        <v>473</v>
+      </c>
+      <c r="J17" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2996,8 +3095,14 @@
       <c r="G18" s="2" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18" t="s">
+        <v>473</v>
+      </c>
+      <c r="J18" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3019,8 +3124,14 @@
       <c r="G19" s="2" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19" t="s">
+        <v>473</v>
+      </c>
+      <c r="J19" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3042,8 +3153,14 @@
       <c r="G20" s="2" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20" t="s">
+        <v>473</v>
+      </c>
+      <c r="J20" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3065,8 +3182,14 @@
       <c r="G21" s="2" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21" t="s">
+        <v>473</v>
+      </c>
+      <c r="J21" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3088,8 +3211,14 @@
       <c r="G22" s="2" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="I22" t="s">
+        <v>473</v>
+      </c>
+      <c r="J22" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3111,8 +3240,14 @@
       <c r="G23" s="2" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="I23" t="s">
+        <v>473</v>
+      </c>
+      <c r="J23" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3134,8 +3269,14 @@
       <c r="G24" s="2" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="I24" t="s">
+        <v>473</v>
+      </c>
+      <c r="J24" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3157,8 +3298,14 @@
       <c r="G25" s="2" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="I25" t="s">
+        <v>473</v>
+      </c>
+      <c r="J25" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -3180,8 +3327,14 @@
       <c r="G26" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="I26" t="s">
+        <v>473</v>
+      </c>
+      <c r="J26" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -3203,8 +3356,14 @@
       <c r="G27" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="I27" t="s">
+        <v>473</v>
+      </c>
+      <c r="J27" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -3226,8 +3385,14 @@
       <c r="G28" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="I28" t="s">
+        <v>473</v>
+      </c>
+      <c r="J28" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -3249,8 +3414,14 @@
       <c r="G29" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="I29" t="s">
+        <v>473</v>
+      </c>
+      <c r="J29" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -3272,8 +3443,14 @@
       <c r="G30" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="I30" t="s">
+        <v>473</v>
+      </c>
+      <c r="J30" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -3295,8 +3472,14 @@
       <c r="G31" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="I31" t="s">
+        <v>473</v>
+      </c>
+      <c r="J31" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -3318,8 +3501,14 @@
       <c r="G32" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="I32" t="s">
+        <v>473</v>
+      </c>
+      <c r="J32" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -3341,8 +3530,14 @@
       <c r="G33" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="I33" t="s">
+        <v>473</v>
+      </c>
+      <c r="J33" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -3364,8 +3559,14 @@
       <c r="G34" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="I34" t="s">
+        <v>473</v>
+      </c>
+      <c r="J34" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -3387,8 +3588,14 @@
       <c r="G35" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="I35" t="s">
+        <v>473</v>
+      </c>
+      <c r="J35" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -3410,8 +3617,14 @@
       <c r="G36" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="I36" t="s">
+        <v>473</v>
+      </c>
+      <c r="J36" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -3433,8 +3646,14 @@
       <c r="G37" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="I37" t="s">
+        <v>473</v>
+      </c>
+      <c r="J37" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -3456,8 +3675,14 @@
       <c r="G38" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="I38" t="s">
+        <v>473</v>
+      </c>
+      <c r="J38" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -3479,8 +3704,14 @@
       <c r="G39" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="I39" t="s">
+        <v>473</v>
+      </c>
+      <c r="J39" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -3502,8 +3733,14 @@
       <c r="G40" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="I40" t="s">
+        <v>473</v>
+      </c>
+      <c r="J40" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -3525,8 +3762,14 @@
       <c r="G41" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="I41" t="s">
+        <v>473</v>
+      </c>
+      <c r="J41" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -3548,8 +3791,14 @@
       <c r="G42" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="I42" t="s">
+        <v>473</v>
+      </c>
+      <c r="J42" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -3571,8 +3820,14 @@
       <c r="G43" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="I43" t="s">
+        <v>473</v>
+      </c>
+      <c r="J43" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -3594,8 +3849,14 @@
       <c r="G44" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="I44" t="s">
+        <v>473</v>
+      </c>
+      <c r="J44" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -3617,8 +3878,14 @@
       <c r="G45" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="I45" t="s">
+        <v>473</v>
+      </c>
+      <c r="J45" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -3640,8 +3907,14 @@
       <c r="G46" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="I46" t="s">
+        <v>473</v>
+      </c>
+      <c r="J46" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -3663,8 +3936,14 @@
       <c r="G47" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="I47" t="s">
+        <v>473</v>
+      </c>
+      <c r="J47" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -3686,8 +3965,14 @@
       <c r="G48" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="I48" t="s">
+        <v>473</v>
+      </c>
+      <c r="J48" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -3709,8 +3994,14 @@
       <c r="G49" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="I49" t="s">
+        <v>473</v>
+      </c>
+      <c r="J49" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -3732,8 +4023,14 @@
       <c r="G50" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="I50" t="s">
+        <v>473</v>
+      </c>
+      <c r="J50" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -3755,8 +4052,14 @@
       <c r="G51" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="I51" t="s">
+        <v>473</v>
+      </c>
+      <c r="J51" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -3778,8 +4081,14 @@
       <c r="G52" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="I52" t="s">
+        <v>473</v>
+      </c>
+      <c r="J52" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -3801,8 +4110,14 @@
       <c r="G53" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="I53" t="s">
+        <v>473</v>
+      </c>
+      <c r="J53" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -3824,8 +4139,14 @@
       <c r="G54" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="I54" t="s">
+        <v>473</v>
+      </c>
+      <c r="J54" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -3847,8 +4168,14 @@
       <c r="G55" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="I55" t="s">
+        <v>473</v>
+      </c>
+      <c r="J55" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -3870,8 +4197,14 @@
       <c r="G56" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="I56" t="s">
+        <v>473</v>
+      </c>
+      <c r="J56" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -3893,8 +4226,14 @@
       <c r="G57" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="I57" t="s">
+        <v>473</v>
+      </c>
+      <c r="J57" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -3916,8 +4255,14 @@
       <c r="G58" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="I58" t="s">
+        <v>473</v>
+      </c>
+      <c r="J58" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -3939,8 +4284,14 @@
       <c r="G59" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="I59" t="s">
+        <v>473</v>
+      </c>
+      <c r="J59" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -3962,8 +4313,14 @@
       <c r="G60" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="I60" t="s">
+        <v>473</v>
+      </c>
+      <c r="J60" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -3985,8 +4342,14 @@
       <c r="G61" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="I61" t="s">
+        <v>473</v>
+      </c>
+      <c r="J61" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -4008,8 +4371,14 @@
       <c r="G62" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="I62" t="s">
+        <v>473</v>
+      </c>
+      <c r="J62" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -4031,8 +4400,14 @@
       <c r="G63" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="I63" t="s">
+        <v>473</v>
+      </c>
+      <c r="J63" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -4054,8 +4429,14 @@
       <c r="G64" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="I64" t="s">
+        <v>473</v>
+      </c>
+      <c r="J64" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -4077,8 +4458,14 @@
       <c r="G65" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="I65" t="s">
+        <v>473</v>
+      </c>
+      <c r="J65" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -4100,8 +4487,14 @@
       <c r="G66" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="I66" t="s">
+        <v>473</v>
+      </c>
+      <c r="J66" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -4123,8 +4516,14 @@
       <c r="G67" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="I67" t="s">
+        <v>473</v>
+      </c>
+      <c r="J67" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -4146,8 +4545,14 @@
       <c r="G68" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="I68" t="s">
+        <v>473</v>
+      </c>
+      <c r="J68" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -4169,8 +4574,14 @@
       <c r="G69" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="I69" t="s">
+        <v>473</v>
+      </c>
+      <c r="J69" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -4192,8 +4603,14 @@
       <c r="G70" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="I70" t="s">
+        <v>473</v>
+      </c>
+      <c r="J70" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -4215,8 +4632,14 @@
       <c r="G71" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="I71" t="s">
+        <v>473</v>
+      </c>
+      <c r="J71" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -4238,8 +4661,14 @@
       <c r="G72" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="I72" t="s">
+        <v>473</v>
+      </c>
+      <c r="J72" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -4261,8 +4690,14 @@
       <c r="G73" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="I73" t="s">
+        <v>473</v>
+      </c>
+      <c r="J73" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -4284,8 +4719,14 @@
       <c r="G74" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="I74" t="s">
+        <v>473</v>
+      </c>
+      <c r="J74" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -4307,8 +4748,14 @@
       <c r="G75" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="I75" t="s">
+        <v>473</v>
+      </c>
+      <c r="J75" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -4330,8 +4777,14 @@
       <c r="G76" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="I76" t="s">
+        <v>473</v>
+      </c>
+      <c r="J76" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -4353,8 +4806,14 @@
       <c r="G77" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="I77" t="s">
+        <v>473</v>
+      </c>
+      <c r="J77" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -4376,8 +4835,14 @@
       <c r="G78" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="I78" t="s">
+        <v>473</v>
+      </c>
+      <c r="J78" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -4399,8 +4864,14 @@
       <c r="G79" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="I79" t="s">
+        <v>473</v>
+      </c>
+      <c r="J79" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -4422,8 +4893,14 @@
       <c r="G80" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="I80" t="s">
+        <v>473</v>
+      </c>
+      <c r="J80" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -4445,8 +4922,14 @@
       <c r="G81" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="I81" t="s">
+        <v>473</v>
+      </c>
+      <c r="J81" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -4468,8 +4951,14 @@
       <c r="G82" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="I82" t="s">
+        <v>473</v>
+      </c>
+      <c r="J82" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -4491,8 +4980,14 @@
       <c r="G83" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="I83" t="s">
+        <v>473</v>
+      </c>
+      <c r="J83" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -4514,8 +5009,14 @@
       <c r="G84" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="I84" t="s">
+        <v>473</v>
+      </c>
+      <c r="J84" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -4537,8 +5038,14 @@
       <c r="G85" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="I85" t="s">
+        <v>473</v>
+      </c>
+      <c r="J85" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -4560,8 +5067,14 @@
       <c r="G86" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="I86" t="s">
+        <v>473</v>
+      </c>
+      <c r="J86" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -4583,8 +5096,14 @@
       <c r="G87" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="I87" t="s">
+        <v>473</v>
+      </c>
+      <c r="J87" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -4606,8 +5125,14 @@
       <c r="G88" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="I88" t="s">
+        <v>473</v>
+      </c>
+      <c r="J88" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -4629,8 +5154,14 @@
       <c r="G89" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="I89" t="s">
+        <v>473</v>
+      </c>
+      <c r="J89" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -4652,8 +5183,14 @@
       <c r="G90" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="I90" t="s">
+        <v>473</v>
+      </c>
+      <c r="J90" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -4675,8 +5212,14 @@
       <c r="G91" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="I91" t="s">
+        <v>473</v>
+      </c>
+      <c r="J91" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -4698,8 +5241,14 @@
       <c r="G92" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="I92" t="s">
+        <v>473</v>
+      </c>
+      <c r="J92" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -4721,8 +5270,14 @@
       <c r="G93" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="94" spans="1:7">
+      <c r="I93" t="s">
+        <v>473</v>
+      </c>
+      <c r="J93" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -4744,8 +5299,14 @@
       <c r="G94" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="I94" t="s">
+        <v>473</v>
+      </c>
+      <c r="J94" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -4767,8 +5328,14 @@
       <c r="G95" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="I95" t="s">
+        <v>473</v>
+      </c>
+      <c r="J95" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -4790,8 +5357,14 @@
       <c r="G96" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="I96" t="s">
+        <v>473</v>
+      </c>
+      <c r="J96" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -4813,8 +5386,14 @@
       <c r="G97" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="I97" t="s">
+        <v>473</v>
+      </c>
+      <c r="J97" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -4836,8 +5415,14 @@
       <c r="G98" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="I98" t="s">
+        <v>473</v>
+      </c>
+      <c r="J98" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -4859,8 +5444,14 @@
       <c r="G99" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="I99" t="s">
+        <v>473</v>
+      </c>
+      <c r="J99" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -4882,8 +5473,14 @@
       <c r="G100" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="I100" t="s">
+        <v>473</v>
+      </c>
+      <c r="J100" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -4905,8 +5502,14 @@
       <c r="G101" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="102" spans="1:7">
+      <c r="I101" t="s">
+        <v>473</v>
+      </c>
+      <c r="J101" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -4928,8 +5531,14 @@
       <c r="G102" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="I102" t="s">
+        <v>473</v>
+      </c>
+      <c r="J102" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -4951,8 +5560,14 @@
       <c r="G103" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="I103" t="s">
+        <v>473</v>
+      </c>
+      <c r="J103" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -4974,8 +5589,14 @@
       <c r="G104" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="105" spans="1:7">
+      <c r="I104" t="s">
+        <v>473</v>
+      </c>
+      <c r="J104" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -4997,8 +5618,14 @@
       <c r="G105" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="106" spans="1:7">
+      <c r="I105" t="s">
+        <v>473</v>
+      </c>
+      <c r="J105" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -5020,8 +5647,14 @@
       <c r="G106" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="107" spans="1:7">
+      <c r="I106" t="s">
+        <v>473</v>
+      </c>
+      <c r="J106" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -5043,8 +5676,14 @@
       <c r="G107" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="108" spans="1:7">
+      <c r="I107" t="s">
+        <v>473</v>
+      </c>
+      <c r="J107" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -5066,8 +5705,14 @@
       <c r="G108" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="109" spans="1:7">
+      <c r="I108" t="s">
+        <v>473</v>
+      </c>
+      <c r="J108" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -5089,8 +5734,14 @@
       <c r="G109" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="110" spans="1:7">
+      <c r="I109" t="s">
+        <v>473</v>
+      </c>
+      <c r="J109" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -5112,8 +5763,14 @@
       <c r="G110" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="111" spans="1:7">
+      <c r="I110" t="s">
+        <v>473</v>
+      </c>
+      <c r="J110" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -5135,8 +5792,14 @@
       <c r="G111" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="112" spans="1:7">
+      <c r="I111" t="s">
+        <v>473</v>
+      </c>
+      <c r="J111" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -5158,8 +5821,14 @@
       <c r="G112" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="113" spans="1:7">
+      <c r="I112" t="s">
+        <v>473</v>
+      </c>
+      <c r="J112" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -5181,8 +5850,14 @@
       <c r="G113" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="114" spans="1:7">
+      <c r="I113" t="s">
+        <v>473</v>
+      </c>
+      <c r="J113" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -5204,8 +5879,14 @@
       <c r="G114" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="115" spans="1:7">
+      <c r="I114" t="s">
+        <v>473</v>
+      </c>
+      <c r="J114" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -5227,8 +5908,14 @@
       <c r="G115" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="116" spans="1:7">
+      <c r="I115" t="s">
+        <v>473</v>
+      </c>
+      <c r="J115" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -5250,8 +5937,14 @@
       <c r="G116" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="117" spans="1:7">
+      <c r="I116" t="s">
+        <v>473</v>
+      </c>
+      <c r="J116" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -5273,8 +5966,14 @@
       <c r="G117" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="118" spans="1:7">
+      <c r="I117" t="s">
+        <v>473</v>
+      </c>
+      <c r="J117" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -5296,8 +5995,14 @@
       <c r="G118" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="119" spans="1:7">
+      <c r="I118" t="s">
+        <v>473</v>
+      </c>
+      <c r="J118" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -5319,8 +6024,14 @@
       <c r="G119" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="120" spans="1:7">
+      <c r="I119" t="s">
+        <v>473</v>
+      </c>
+      <c r="J119" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -5342,8 +6053,14 @@
       <c r="G120" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="121" spans="1:7">
+      <c r="I120" t="s">
+        <v>473</v>
+      </c>
+      <c r="J120" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -5365,8 +6082,14 @@
       <c r="G121" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="122" spans="1:7">
+      <c r="I121" t="s">
+        <v>473</v>
+      </c>
+      <c r="J121" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -5388,8 +6111,14 @@
       <c r="G122" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="123" spans="1:7">
+      <c r="I122" t="s">
+        <v>473</v>
+      </c>
+      <c r="J122" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -5411,8 +6140,14 @@
       <c r="G123" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="124" spans="1:7">
+      <c r="I123" t="s">
+        <v>473</v>
+      </c>
+      <c r="J123" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" t="s">
         <v>122</v>
       </c>
@@ -5434,8 +6169,14 @@
       <c r="G124" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="125" spans="1:7">
+      <c r="I124" t="s">
+        <v>473</v>
+      </c>
+      <c r="J124" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -5457,8 +6198,14 @@
       <c r="G125" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="126" spans="1:7">
+      <c r="I125" t="s">
+        <v>473</v>
+      </c>
+      <c r="J125" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" t="s">
         <v>124</v>
       </c>
@@ -5480,8 +6227,14 @@
       <c r="G126" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="127" spans="1:7">
+      <c r="I126" t="s">
+        <v>473</v>
+      </c>
+      <c r="J126" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -5503,8 +6256,14 @@
       <c r="G127" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="128" spans="1:7">
+      <c r="I127" t="s">
+        <v>473</v>
+      </c>
+      <c r="J127" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -5526,8 +6285,14 @@
       <c r="G128" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="129" spans="1:7">
+      <c r="I128" t="s">
+        <v>473</v>
+      </c>
+      <c r="J128" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -5549,8 +6314,14 @@
       <c r="G129" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="130" spans="1:7">
+      <c r="I129" t="s">
+        <v>473</v>
+      </c>
+      <c r="J129" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" t="s">
         <v>128</v>
       </c>
@@ -5572,8 +6343,14 @@
       <c r="G130" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="131" spans="1:7">
+      <c r="I130" t="s">
+        <v>473</v>
+      </c>
+      <c r="J130" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" t="s">
         <v>129</v>
       </c>
@@ -5595,8 +6372,14 @@
       <c r="G131" s="2" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="132" spans="1:7">
+      <c r="I131" t="s">
+        <v>473</v>
+      </c>
+      <c r="J131" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" t="s">
         <v>130</v>
       </c>
@@ -5618,8 +6401,14 @@
       <c r="G132" s="2" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="133" spans="1:7">
+      <c r="I132" t="s">
+        <v>473</v>
+      </c>
+      <c r="J132" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" t="s">
         <v>131</v>
       </c>
@@ -5641,8 +6430,14 @@
       <c r="G133" s="2" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="134" spans="1:7">
+      <c r="I133" t="s">
+        <v>473</v>
+      </c>
+      <c r="J133" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" t="s">
         <v>132</v>
       </c>
@@ -5664,8 +6459,14 @@
       <c r="G134" s="2" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="135" spans="1:7">
+      <c r="I134" t="s">
+        <v>473</v>
+      </c>
+      <c r="J134" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" t="s">
         <v>133</v>
       </c>
@@ -5685,6 +6486,12 @@
         <v>473</v>
       </c>
       <c r="G135" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="I135" t="s">
+        <v>473</v>
+      </c>
+      <c r="J135" t="s">
         <v>473</v>
       </c>
     </row>
@@ -5698,7 +6505,7 @@
   <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I2" sqref="I2:J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5767,6 +6574,12 @@
       <c r="G2" s="2" t="s">
         <v>476</v>
       </c>
+      <c r="I2" t="s">
+        <v>473</v>
+      </c>
+      <c r="J2" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
@@ -5790,6 +6603,12 @@
       <c r="G3" s="2" t="s">
         <v>478</v>
       </c>
+      <c r="I3" t="s">
+        <v>473</v>
+      </c>
+      <c r="J3" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
@@ -5813,6 +6632,12 @@
       <c r="G4" s="2" t="s">
         <v>478</v>
       </c>
+      <c r="I4" t="s">
+        <v>473</v>
+      </c>
+      <c r="J4" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
@@ -5836,6 +6661,12 @@
       <c r="G5" s="2" t="s">
         <v>476</v>
       </c>
+      <c r="I5" t="s">
+        <v>473</v>
+      </c>
+      <c r="J5" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
@@ -5859,6 +6690,12 @@
       <c r="G6" s="2" t="s">
         <v>478</v>
       </c>
+      <c r="I6" t="s">
+        <v>473</v>
+      </c>
+      <c r="J6" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
@@ -5882,6 +6719,12 @@
       <c r="G7" s="2" t="s">
         <v>478</v>
       </c>
+      <c r="I7" t="s">
+        <v>473</v>
+      </c>
+      <c r="J7" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
@@ -5905,6 +6748,12 @@
       <c r="G8" s="2" t="s">
         <v>476</v>
       </c>
+      <c r="I8" t="s">
+        <v>473</v>
+      </c>
+      <c r="J8" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
@@ -5928,6 +6777,12 @@
       <c r="G9" s="2" t="s">
         <v>478</v>
       </c>
+      <c r="I9" t="s">
+        <v>473</v>
+      </c>
+      <c r="J9" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
@@ -5951,6 +6806,12 @@
       <c r="G10" s="2" t="s">
         <v>478</v>
       </c>
+      <c r="I10" t="s">
+        <v>473</v>
+      </c>
+      <c r="J10" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
@@ -5974,6 +6835,12 @@
       <c r="G11" s="2" t="s">
         <v>478</v>
       </c>
+      <c r="I11" t="s">
+        <v>473</v>
+      </c>
+      <c r="J11" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
@@ -5997,6 +6864,12 @@
       <c r="G12" s="2" t="s">
         <v>478</v>
       </c>
+      <c r="I12" t="s">
+        <v>473</v>
+      </c>
+      <c r="J12" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
@@ -6020,6 +6893,12 @@
       <c r="G13" s="2" t="s">
         <v>478</v>
       </c>
+      <c r="I13" t="s">
+        <v>473</v>
+      </c>
+      <c r="J13" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
@@ -6043,6 +6922,12 @@
       <c r="G14" s="2" t="s">
         <v>476</v>
       </c>
+      <c r="I14" t="s">
+        <v>473</v>
+      </c>
+      <c r="J14" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
@@ -6066,6 +6951,12 @@
       <c r="G15" s="2" t="s">
         <v>478</v>
       </c>
+      <c r="I15" t="s">
+        <v>473</v>
+      </c>
+      <c r="J15" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
@@ -6089,8 +6980,14 @@
       <c r="G16" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16" t="s">
+        <v>473</v>
+      </c>
+      <c r="J16" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>149</v>
       </c>
@@ -6112,8 +7009,14 @@
       <c r="G17" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17" t="s">
+        <v>473</v>
+      </c>
+      <c r="J17" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>150</v>
       </c>
@@ -6135,8 +7038,14 @@
       <c r="G18" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18" t="s">
+        <v>473</v>
+      </c>
+      <c r="J18" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>151</v>
       </c>
@@ -6158,8 +7067,14 @@
       <c r="G19" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19" t="s">
+        <v>473</v>
+      </c>
+      <c r="J19" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>152</v>
       </c>
@@ -6181,8 +7096,14 @@
       <c r="G20" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20" t="s">
+        <v>473</v>
+      </c>
+      <c r="J20" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>153</v>
       </c>
@@ -6204,8 +7125,14 @@
       <c r="G21" s="2" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21" t="s">
+        <v>473</v>
+      </c>
+      <c r="J21" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>154</v>
       </c>
@@ -6227,8 +7154,14 @@
       <c r="G22" s="2" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="I22" t="s">
+        <v>473</v>
+      </c>
+      <c r="J22" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>155</v>
       </c>
@@ -6250,8 +7183,14 @@
       <c r="G23" s="2" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="I23" t="s">
+        <v>473</v>
+      </c>
+      <c r="J23" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>156</v>
       </c>
@@ -6273,8 +7212,14 @@
       <c r="G24" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="I24" t="s">
+        <v>473</v>
+      </c>
+      <c r="J24" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>157</v>
       </c>
@@ -6296,8 +7241,14 @@
       <c r="G25" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="I25" t="s">
+        <v>473</v>
+      </c>
+      <c r="J25" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>158</v>
       </c>
@@ -6319,8 +7270,14 @@
       <c r="G26" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="I26" t="s">
+        <v>473</v>
+      </c>
+      <c r="J26" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>159</v>
       </c>
@@ -6342,8 +7299,14 @@
       <c r="G27" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="I27" t="s">
+        <v>473</v>
+      </c>
+      <c r="J27" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>160</v>
       </c>
@@ -6365,8 +7328,14 @@
       <c r="G28" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="I28" t="s">
+        <v>473</v>
+      </c>
+      <c r="J28" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>161</v>
       </c>
@@ -6388,8 +7357,14 @@
       <c r="G29" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="I29" t="s">
+        <v>473</v>
+      </c>
+      <c r="J29" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>162</v>
       </c>
@@ -6411,8 +7386,14 @@
       <c r="G30" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="I30" t="s">
+        <v>473</v>
+      </c>
+      <c r="J30" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>163</v>
       </c>
@@ -6434,8 +7415,14 @@
       <c r="G31" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="I31" t="s">
+        <v>473</v>
+      </c>
+      <c r="J31" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>164</v>
       </c>
@@ -6457,8 +7444,14 @@
       <c r="G32" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="I32" t="s">
+        <v>473</v>
+      </c>
+      <c r="J32" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>165</v>
       </c>
@@ -6480,8 +7473,14 @@
       <c r="G33" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="I33" t="s">
+        <v>473</v>
+      </c>
+      <c r="J33" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>166</v>
       </c>
@@ -6503,8 +7502,14 @@
       <c r="G34" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="I34" t="s">
+        <v>473</v>
+      </c>
+      <c r="J34" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>167</v>
       </c>
@@ -6526,8 +7531,14 @@
       <c r="G35" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="I35" t="s">
+        <v>473</v>
+      </c>
+      <c r="J35" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>168</v>
       </c>
@@ -6549,8 +7560,14 @@
       <c r="G36" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="I36" t="s">
+        <v>473</v>
+      </c>
+      <c r="J36" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>169</v>
       </c>
@@ -6572,8 +7589,14 @@
       <c r="G37" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="I37" t="s">
+        <v>473</v>
+      </c>
+      <c r="J37" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>170</v>
       </c>
@@ -6595,8 +7618,14 @@
       <c r="G38" s="2" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="I38" t="s">
+        <v>473</v>
+      </c>
+      <c r="J38" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>171</v>
       </c>
@@ -6618,8 +7647,14 @@
       <c r="G39" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="I39" t="s">
+        <v>473</v>
+      </c>
+      <c r="J39" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>172</v>
       </c>
@@ -6641,8 +7676,14 @@
       <c r="G40" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="I40" t="s">
+        <v>473</v>
+      </c>
+      <c r="J40" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>173</v>
       </c>
@@ -6664,8 +7705,14 @@
       <c r="G41" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="I41" t="s">
+        <v>473</v>
+      </c>
+      <c r="J41" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>174</v>
       </c>
@@ -6687,8 +7734,14 @@
       <c r="G42" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="I42" t="s">
+        <v>473</v>
+      </c>
+      <c r="J42" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>175</v>
       </c>
@@ -6710,8 +7763,14 @@
       <c r="G43" s="2" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="I43" t="s">
+        <v>473</v>
+      </c>
+      <c r="J43" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>176</v>
       </c>
@@ -6733,8 +7792,14 @@
       <c r="G44" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="I44" t="s">
+        <v>473</v>
+      </c>
+      <c r="J44" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>177</v>
       </c>
@@ -6756,8 +7821,14 @@
       <c r="G45" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="I45" t="s">
+        <v>473</v>
+      </c>
+      <c r="J45" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
         <v>178</v>
       </c>
@@ -6779,8 +7850,14 @@
       <c r="G46" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="I46" t="s">
+        <v>473</v>
+      </c>
+      <c r="J46" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
         <v>179</v>
       </c>
@@ -6802,8 +7879,14 @@
       <c r="G47" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="I47" t="s">
+        <v>473</v>
+      </c>
+      <c r="J47" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>180</v>
       </c>
@@ -6825,8 +7908,14 @@
       <c r="G48" s="2" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="I48" t="s">
+        <v>473</v>
+      </c>
+      <c r="J48" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>181</v>
       </c>
@@ -6848,8 +7937,14 @@
       <c r="G49" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="I49" t="s">
+        <v>473</v>
+      </c>
+      <c r="J49" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>182</v>
       </c>
@@ -6871,8 +7966,14 @@
       <c r="G50" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="I50" t="s">
+        <v>473</v>
+      </c>
+      <c r="J50" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>183</v>
       </c>
@@ -6894,8 +7995,14 @@
       <c r="G51" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="I51" t="s">
+        <v>473</v>
+      </c>
+      <c r="J51" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>184</v>
       </c>
@@ -6917,8 +8024,14 @@
       <c r="G52" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="I52" t="s">
+        <v>473</v>
+      </c>
+      <c r="J52" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>185</v>
       </c>
@@ -6940,8 +8053,14 @@
       <c r="G53" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="I53" t="s">
+        <v>473</v>
+      </c>
+      <c r="J53" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>186</v>
       </c>
@@ -6963,8 +8082,14 @@
       <c r="G54" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="I54" t="s">
+        <v>473</v>
+      </c>
+      <c r="J54" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>187</v>
       </c>
@@ -6986,8 +8111,14 @@
       <c r="G55" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="I55" t="s">
+        <v>473</v>
+      </c>
+      <c r="J55" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>188</v>
       </c>
@@ -7009,8 +8140,14 @@
       <c r="G56" s="2" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="I56" t="s">
+        <v>473</v>
+      </c>
+      <c r="J56" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>189</v>
       </c>
@@ -7032,8 +8169,14 @@
       <c r="G57" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="I57" t="s">
+        <v>473</v>
+      </c>
+      <c r="J57" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
         <v>190</v>
       </c>
@@ -7054,6 +8197,12 @@
       </c>
       <c r="G58" s="2" t="s">
         <v>481</v>
+      </c>
+      <c r="I58" t="s">
+        <v>473</v>
+      </c>
+      <c r="J58" t="s">
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -7065,22 +8214,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1:I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="66.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1">
@@ -9426,13 +10576,13 @@
         <v>473</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H81" s="16" t="s">
-        <v>473</v>
+        <v>609</v>
       </c>
       <c r="I81" s="16" t="s">
-        <v>473</v>
+        <v>608</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -9457,10 +10607,10 @@
       <c r="G82" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="H82" s="16" t="s">
-        <v>473</v>
-      </c>
-      <c r="I82" s="16" t="s">
+      <c r="H82" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="I82" s="2" t="s">
         <v>473</v>
       </c>
     </row>
@@ -10145,7 +11295,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10214,6 +11364,12 @@
       <c r="G2" s="2" t="s">
         <v>478</v>
       </c>
+      <c r="I2" t="s">
+        <v>473</v>
+      </c>
+      <c r="J2" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
@@ -10237,6 +11393,12 @@
       <c r="G3" s="2" t="s">
         <v>476</v>
       </c>
+      <c r="I3" t="s">
+        <v>473</v>
+      </c>
+      <c r="J3" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
@@ -10260,6 +11422,12 @@
       <c r="G4" s="2" t="s">
         <v>480</v>
       </c>
+      <c r="I4" t="s">
+        <v>473</v>
+      </c>
+      <c r="J4" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
@@ -10283,6 +11451,12 @@
       <c r="G5" s="3" t="s">
         <v>482</v>
       </c>
+      <c r="I5" t="s">
+        <v>473</v>
+      </c>
+      <c r="J5" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
@@ -10304,6 +11478,12 @@
         <v>473</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="I6" t="s">
+        <v>473</v>
+      </c>
+      <c r="J6" t="s">
         <v>473</v>
       </c>
     </row>
@@ -10316,8 +11496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="G238" sqref="G238"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10546,7 +11726,7 @@
         <v>473</v>
       </c>
       <c r="G7" t="s">
-        <v>608</v>
+        <v>481</v>
       </c>
       <c r="H7" t="s">
         <v>473</v>
@@ -10578,7 +11758,7 @@
         <v>473</v>
       </c>
       <c r="G8" t="s">
-        <v>608</v>
+        <v>481</v>
       </c>
       <c r="H8" t="s">
         <v>473</v>
@@ -10610,7 +11790,7 @@
         <v>473</v>
       </c>
       <c r="G9" t="s">
-        <v>608</v>
+        <v>481</v>
       </c>
       <c r="H9" t="s">
         <v>473</v>
@@ -10642,7 +11822,7 @@
         <v>473</v>
       </c>
       <c r="G10" t="s">
-        <v>608</v>
+        <v>481</v>
       </c>
       <c r="H10" t="s">
         <v>473</v>
@@ -10674,7 +11854,7 @@
         <v>473</v>
       </c>
       <c r="G11" t="s">
-        <v>608</v>
+        <v>481</v>
       </c>
       <c r="H11" t="s">
         <v>473</v>
@@ -10898,7 +12078,7 @@
         <v>473</v>
       </c>
       <c r="G18" t="s">
-        <v>608</v>
+        <v>481</v>
       </c>
       <c r="H18" t="s">
         <v>473</v>
@@ -10930,7 +12110,7 @@
         <v>473</v>
       </c>
       <c r="G19" t="s">
-        <v>608</v>
+        <v>481</v>
       </c>
       <c r="H19" t="s">
         <v>473</v>
@@ -10962,7 +12142,7 @@
         <v>473</v>
       </c>
       <c r="G20" t="s">
-        <v>608</v>
+        <v>481</v>
       </c>
       <c r="H20" t="s">
         <v>473</v>
@@ -10994,7 +12174,7 @@
         <v>473</v>
       </c>
       <c r="G21" t="s">
-        <v>608</v>
+        <v>481</v>
       </c>
       <c r="H21" t="s">
         <v>473</v>
@@ -11026,7 +12206,7 @@
         <v>473</v>
       </c>
       <c r="G22" t="s">
-        <v>608</v>
+        <v>481</v>
       </c>
       <c r="H22" t="s">
         <v>473</v>
@@ -11250,7 +12430,7 @@
         <v>473</v>
       </c>
       <c r="G29" t="s">
-        <v>608</v>
+        <v>481</v>
       </c>
       <c r="H29" t="s">
         <v>473</v>
@@ -11282,7 +12462,7 @@
         <v>473</v>
       </c>
       <c r="G30" t="s">
-        <v>608</v>
+        <v>481</v>
       </c>
       <c r="H30" t="s">
         <v>473</v>
@@ -11314,7 +12494,7 @@
         <v>473</v>
       </c>
       <c r="G31" t="s">
-        <v>608</v>
+        <v>481</v>
       </c>
       <c r="H31" t="s">
         <v>473</v>
@@ -11346,7 +12526,7 @@
         <v>473</v>
       </c>
       <c r="G32" t="s">
-        <v>608</v>
+        <v>481</v>
       </c>
       <c r="H32" t="s">
         <v>473</v>
@@ -11378,7 +12558,7 @@
         <v>473</v>
       </c>
       <c r="G33" t="s">
-        <v>608</v>
+        <v>481</v>
       </c>
       <c r="H33" t="s">
         <v>473</v>
@@ -11602,7 +12782,7 @@
         <v>473</v>
       </c>
       <c r="G40" t="s">
-        <v>608</v>
+        <v>481</v>
       </c>
       <c r="H40" t="s">
         <v>473</v>
@@ -11634,7 +12814,7 @@
         <v>473</v>
       </c>
       <c r="G41" t="s">
-        <v>608</v>
+        <v>481</v>
       </c>
       <c r="H41" t="s">
         <v>473</v>
@@ -11666,7 +12846,7 @@
         <v>473</v>
       </c>
       <c r="G42" t="s">
-        <v>608</v>
+        <v>481</v>
       </c>
       <c r="H42" t="s">
         <v>473</v>
@@ -11698,7 +12878,7 @@
         <v>473</v>
       </c>
       <c r="G43" t="s">
-        <v>608</v>
+        <v>481</v>
       </c>
       <c r="H43" t="s">
         <v>473</v>
@@ -11730,7 +12910,7 @@
         <v>473</v>
       </c>
       <c r="G44" t="s">
-        <v>608</v>
+        <v>481</v>
       </c>
       <c r="H44" t="s">
         <v>473</v>
@@ -12370,7 +13550,7 @@
         <v>473</v>
       </c>
       <c r="G64" t="s">
-        <v>608</v>
+        <v>481</v>
       </c>
       <c r="H64" t="s">
         <v>473</v>
@@ -12562,7 +13742,7 @@
         <v>473</v>
       </c>
       <c r="G70" t="s">
-        <v>608</v>
+        <v>481</v>
       </c>
       <c r="H70" t="s">
         <v>473</v>
@@ -12722,7 +13902,7 @@
         <v>473</v>
       </c>
       <c r="G75" t="s">
-        <v>608</v>
+        <v>481</v>
       </c>
       <c r="H75" t="s">
         <v>473</v>
@@ -12786,7 +13966,7 @@
         <v>473</v>
       </c>
       <c r="G77" t="s">
-        <v>608</v>
+        <v>481</v>
       </c>
       <c r="H77" t="s">
         <v>473</v>
@@ -12818,7 +13998,7 @@
         <v>473</v>
       </c>
       <c r="G78" t="s">
-        <v>608</v>
+        <v>481</v>
       </c>
       <c r="H78" t="s">
         <v>473</v>
@@ -12850,7 +14030,7 @@
         <v>473</v>
       </c>
       <c r="G79" t="s">
-        <v>608</v>
+        <v>481</v>
       </c>
       <c r="H79" t="s">
         <v>473</v>
@@ -12978,7 +14158,7 @@
         <v>473</v>
       </c>
       <c r="G83" t="s">
-        <v>608</v>
+        <v>481</v>
       </c>
       <c r="H83" t="s">
         <v>473</v>
@@ -13266,7 +14446,7 @@
         <v>473</v>
       </c>
       <c r="G92" t="s">
-        <v>608</v>
+        <v>481</v>
       </c>
       <c r="H92" t="s">
         <v>473</v>
@@ -13330,7 +14510,7 @@
         <v>473</v>
       </c>
       <c r="G94" t="s">
-        <v>608</v>
+        <v>481</v>
       </c>
       <c r="H94" t="s">
         <v>473</v>
